--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,11 @@
     <sheet name="31" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="66">
   <si>
     <t>Retail Name</t>
   </si>
@@ -121,6 +120,129 @@
   <si>
     <t>Ok</t>
   </si>
+  <si>
+    <t>Zilani Exclusive</t>
+  </si>
+  <si>
+    <t>c25/64</t>
+  </si>
+  <si>
+    <t>7i</t>
+  </si>
+  <si>
+    <t>Tuhin Mobile</t>
+  </si>
+  <si>
+    <t>Arham Electronics</t>
+  </si>
+  <si>
+    <t>ABC Communication</t>
+  </si>
+  <si>
+    <t>c21/32</t>
+  </si>
+  <si>
+    <t>Bina Mobile</t>
+  </si>
+  <si>
+    <t>Bismillah Telecom</t>
+  </si>
+  <si>
+    <t>Pre-Ok</t>
+  </si>
+  <si>
+    <t>Hello Natore</t>
+  </si>
+  <si>
+    <t>Narzo30a</t>
+  </si>
+  <si>
+    <t>Shakil Mama/ Kabir Tel</t>
+  </si>
+  <si>
+    <t>Rose Mobile</t>
+  </si>
+  <si>
+    <t>Sohan enterprise</t>
+  </si>
+  <si>
+    <t>Sikreeti Times</t>
+  </si>
+  <si>
+    <t>c21/64</t>
+  </si>
+  <si>
+    <t>Momtaj Telecom</t>
+  </si>
+  <si>
+    <t>Friends Mobile Collection</t>
+  </si>
+  <si>
+    <t>Biswash Teleocm</t>
+  </si>
+  <si>
+    <t>Biswash Telecom</t>
+  </si>
+  <si>
+    <t>Galaxy Mobile</t>
+  </si>
+  <si>
+    <t>Dighi Telecom'</t>
+  </si>
+  <si>
+    <t>Mobile Park</t>
+  </si>
+  <si>
+    <t>Pre_OK</t>
+  </si>
+  <si>
+    <t>Saju Telecom</t>
+  </si>
+  <si>
+    <t>narzo30a</t>
+  </si>
+  <si>
+    <t>c25/128</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>Friends Mobile</t>
+  </si>
+  <si>
+    <t>Siddik Telecom</t>
+  </si>
+  <si>
+    <t>SR Electronics</t>
+  </si>
+  <si>
+    <t>Jafor//Kabir Telecom</t>
+  </si>
+  <si>
+    <t>pre-ok</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Dighi Telecom</t>
+  </si>
+  <si>
+    <t>c20A</t>
+  </si>
+  <si>
+    <t>c20a</t>
+  </si>
+  <si>
+    <t>Murad//Kabir Telecom</t>
+  </si>
+  <si>
+    <t>Papon Telecom</t>
+  </si>
+  <si>
+    <t>Shafi Mobile//Kabir</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +341,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +653,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,112 +683,248 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050099256</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092050790572</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051198551</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092051222195</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868529042702158</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092051218938</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092051222294</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861627040733675</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092051216833</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092051222112</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050625532</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050626274</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050624410</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861627041704170</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092051222138</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8">
+        <v>869092051219175</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -1398,6 +1665,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D19">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10257,7 +10527,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10287,292 +10557,646 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861627041302033</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861627041704139</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051204250</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861627041640077</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050094299</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868529042703057</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868529042703131</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>861180050091956</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>861180050061173</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>862539044802670</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050099298</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>861180050100195</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868529042804178</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868529042805837</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092050701579</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694050085273</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050085554</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092050790416</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092050806451</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051204656</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092051204979</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051204375</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092051204896</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092051204813</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092051203971</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092050783197</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868529042890359</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868529042896356</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>868529042803170</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>862539044991515</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092051207113</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092051207055</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694050084599</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694050626456</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092051209077</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092051209358</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092050806717</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092050701553</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5">
+        <v>861180050095791</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5">
+        <v>861180050061074</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092051204391</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694050624154</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867872050083751</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092051218912</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092051219035</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>861627041704113</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5">
+        <v>861627041703974</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -11133,6 +11757,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D48">
+    <sortCondition ref="D48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19991,8 +20618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20000,7 +20627,7 @@
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -22874,7 +23501,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22904,311 +23531,691 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868529042702919</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5">
+        <v>863726050807573</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051480850</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050084995</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
+        <v>863726050806914</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050807517</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050618476</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5">
+        <v>863726050807656</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050818012</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050060498</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8">
+        <v>863726050807417</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092051481171</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050842335</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050626118</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050563493</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694050566991</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050626399</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5">
+        <v>863726050807813</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5">
+        <v>863726050807458</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694050840578</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694050827757</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694050832518</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092051492574</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092051481437</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092050701678</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694050565639</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694050751098</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694050846930</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="5">
+        <v>863726050807698</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="5">
+        <v>863726050807771</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092051480975</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092051492913</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694050842434</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5">
+        <v>862539044727877</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>862539043980774</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>862539044964132</v>
+      </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869694050848977</v>
+      </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869694050846377</v>
+      </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5">
+        <v>862539043979271</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869694050624352</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869694050177914</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694050085315</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869694050565795</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694050626571</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694050565191</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050845452</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="5">
+        <v>863726050807276</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694050846070</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="12">
+        <v>869694050844893</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -23750,6 +24757,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D51">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23758,14 +24768,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -23789,193 +24799,439 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5">
+        <v>863726050806997</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050193390</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790050199796</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790050184834</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790050185534</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790050197711</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790050199774</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050199691</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050832054</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694050844497</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092050702056</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050185732</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790050186599</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790050188876</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790050185658</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050806899</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868790050185294</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694050565498</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694050633734</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790050199352</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868790050198297</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051324256</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092050788717</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694050573930</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092051323878</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050087970</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092051481619</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868790050199154</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="8">
+        <v>868790050199816</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868790050197513</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790050197794</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -24635,6 +25891,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:D32">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="67">
   <si>
     <t>Retail Name</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Shafi Mobile//Kabir</t>
+  </si>
+  <si>
+    <t>8Pro</t>
   </si>
 </sst>
 </file>
@@ -24768,7 +24771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -25902,8 +25905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25933,69 +25936,135 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092051461199</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092051464672</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5">
+        <v>867872050370034</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050066594</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050101573</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050819397</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>862539043970171</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050845072</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868529041851378</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694050575216</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694050184050</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="79">
   <si>
     <t>Retail Name</t>
   </si>
@@ -246,6 +246,42 @@
   <si>
     <t>8Pro</t>
   </si>
+  <si>
+    <t>c11/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuhin Mobile </t>
+  </si>
+  <si>
+    <t>Shathi Computer//Kabir</t>
+  </si>
+  <si>
+    <t>Mitali Mobile//Kabir</t>
+  </si>
+  <si>
+    <t>CD Sound</t>
+  </si>
+  <si>
+    <t>Sikreeti Times//Kabir</t>
+  </si>
+  <si>
+    <t>Dipto Mobile</t>
+  </si>
+  <si>
+    <t>Bhuiyan Mobile</t>
+  </si>
+  <si>
+    <t>G-Store</t>
+  </si>
+  <si>
+    <t>MK Telecom//Kabir</t>
+  </si>
+  <si>
+    <t>Motiur Telecom//Kabir</t>
+  </si>
+  <si>
+    <t>Boishakhi Telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,6 +383,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -24771,8 +24810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25238,231 +25277,497 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
+        <v>862539043338890</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092051492616</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868529042802214</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>862539045001314</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5">
+        <v>868790050195376</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="5">
+        <v>868790050196192</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5">
+        <v>862539044729113</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5">
+        <v>868790050193221</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868790050194650</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092051481999</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790050196630</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092051324413</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092051324439</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="5">
+        <v>868790050195335</v>
+      </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5">
+        <v>868790050192993</v>
+      </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092051489513</v>
+      </c>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092051493135</v>
+      </c>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694050651850</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869694050851070</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869694050846153</v>
+      </c>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="5">
+        <v>868790050196457</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092051323555</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092050790275</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869694050651538</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869694050842475</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="4">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5">
+        <v>861180050065950</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="4">
+        <v>8</v>
+      </c>
+      <c r="C59" s="5">
+        <v>861180050060498</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869092051481536</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092050791356</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092050704136</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869092050395810</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869694050651090</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="5">
+        <v>868790050195871</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="5">
+        <v>868790050196911</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869694050812890</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -25905,8 +26210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25939,25 +26244,29 @@
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
+      <c r="B2" s="4">
+        <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>869092051461199</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>861180050066594</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
+      <c r="B3" s="4">
+        <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>869092051464672</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>861180050101573</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -25969,79 +26278,93 @@
       <c r="C4" s="5">
         <v>867872050370034</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
-        <v>8</v>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>861180050066594</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>862539043970171</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4">
-        <v>8</v>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>861180050101573</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>868529041851378</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
-        <v>869092050819397</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>869092051461199</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5">
-        <v>862539043970171</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>869092051464672</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
-        <v>869694050845072</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>869092050819397</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5">
-        <v>868529041851378</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>869694050845072</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -26053,7 +26376,9 @@
       <c r="C11" s="5">
         <v>869694050575216</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -26065,330 +26390,730 @@
       <c r="C12" s="5">
         <v>869694050184050</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8">
+        <v>868790050201737</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092051463419</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790050205613</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868529042702810</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790050202198</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868790050201851</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868790050202396</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790050202156</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790050203139</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050818993</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>861180050063617</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868790050196770</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868790050196531</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694050633296</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694050633056</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694050842392</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694050818079</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <v>861180050098993</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>862532043978075</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5">
+        <v>862539043978570</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868790050195657</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790050193959</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790050194817</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868790050194791</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5">
+        <v>868790050194890</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="5">
+        <v>868790050196812</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869694050635671</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694050634435</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5">
+        <v>861180050100112</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="4">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5">
+        <v>861180050067337</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790050194734</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868790050196374</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694050565134</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092050820932</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="5">
+        <v>867872050364953</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050656594</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694050654334</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694050651074</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869694050650712</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="5">
+        <v>868790050206017</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5">
+        <v>861180050100039</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867872050365737</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="5">
+        <v>867872050370091</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092050820791</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092050821237</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092050818233</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5">
+        <v>862539043980899</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5">
+        <v>862539044798373</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092051465075</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869694050564855</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869694050106079</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -26848,6 +27573,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="B2:C12">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -26858,7 +27586,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26888,88 +27616,200 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092051510433</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092051507777</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051505797</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867872050365356</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092051510136</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092051510110</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790050185195</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050202412</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868790050202230</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790050185518</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092051502372</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869092051501630</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092050818811</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050099470</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -27743,7 +28583,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27773,58 +28613,130 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092050703914</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050101714</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050098175</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>862539044711699</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>862539044794117</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050702270</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050789897</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092050520698</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092050396719</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -28619,6 +29531,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="B3:C10">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="96">
   <si>
     <t>Retail Name</t>
   </si>
@@ -281,6 +281,57 @@
   </si>
   <si>
     <t>Boishakhi Telecom</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>Apurbo Mobile</t>
+  </si>
+  <si>
+    <t>Bosundhora // Kabir</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi Brand</t>
+  </si>
+  <si>
+    <t>Shohan Enterprise</t>
+  </si>
+  <si>
+    <t>C25/128</t>
+  </si>
+  <si>
+    <t>Nabinogor Somobai //Kabir</t>
   </si>
 </sst>
 </file>
@@ -695,7 +746,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10568,8 +10619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20660,8 +20711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="F12:G12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23542,8 +23593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24810,8 +24861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26210,8 +26261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27586,7 +27637,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28582,8 +28633,1360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092050703914</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050101714</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050098175</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>862539044711699</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>862539044794117</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050702270</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050789897</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092050520698</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092050396719</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790050283834</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050281937</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8">
+        <v>868790050282018</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790050283115</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790050282851</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790050283214</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092051219050</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092051501473</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868529042139559</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694050842236</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790050282711</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050819637</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694050627975</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050184555</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868790050282430</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092051505391</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092051505516</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092051504873</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8696940506372110</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050116599</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694050846013</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790050282299</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868790050283974</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868529042622372</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790050282935</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868790050281911</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694050587930</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869694050589738</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092050395950</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092051505250</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092051506993</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092050537593</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092050653358</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092050648895</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694050574771</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694050588417</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694050589233</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050852631</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="5">
+        <v>868529042139898</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="5">
+        <v>868529042803154</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5">
+        <v>861180050098951</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="4">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>861180050092533</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092051498670</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869694050574979</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="5">
+        <v>868790050281754</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092051503636</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8690920505531010</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092050619177</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869694050588854</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:C10">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28614,13 +30017,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="5">
-        <v>869092050703914</v>
+        <v>868529041852335</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>23</v>
@@ -28628,69 +30031,69 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="4">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="5">
-        <v>861180050101714</v>
+        <v>868529042804939</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="5">
-        <v>861180050098175</v>
+        <v>868529042510197</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5">
-        <v>862539044711699</v>
+        <v>868529042805993</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5">
-        <v>862539044794117</v>
+        <v>862539043978810</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
-        <v>869092050702270</v>
+        <v>862539044976698</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -28698,13 +30101,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5">
-        <v>869092050789897</v>
+        <v>869694050657030</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>23</v>
@@ -28712,13 +30115,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5">
-        <v>869092050520698</v>
+        <v>869694050632678</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>23</v>
@@ -28726,83 +30129,171 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5">
-        <v>869092050396719</v>
+        <v>867872050083553</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092050900197</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092050898854</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869092050899753</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092050522496</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="5">
+        <v>862539043981038</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092050537635</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050899654</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092050513479</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092050901179</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092050900478</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092050899696</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -29531,894 +31022,6 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="B3:C10">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="14" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,15 @@
     <sheet name="29" sheetId="29" r:id="rId29"/>
     <sheet name="30" sheetId="30" r:id="rId30"/>
     <sheet name="31" sheetId="31" r:id="rId31"/>
+    <sheet name="Raj Transfer 8" sheetId="32" r:id="rId32"/>
+    <sheet name="Nat Receive C20A" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="105">
   <si>
     <t>Retail Name</t>
   </si>
@@ -333,12 +335,39 @@
   <si>
     <t>Nabinogor Somobai //Kabir</t>
   </si>
+  <si>
+    <t>C25/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sohag Tel// Kabir </t>
+  </si>
+  <si>
+    <t>Akter//Kabir</t>
+  </si>
+  <si>
+    <t>Bismillah Naldanga//Kabir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C20a</t>
+  </si>
+  <si>
+    <t>Date: 10.05.2021</t>
+  </si>
+  <si>
+    <t>C20A</t>
+  </si>
+  <si>
+    <t>Rajshahi to Natore</t>
+  </si>
+  <si>
+    <t>Natore to Rajshahi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +377,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -396,11 +432,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,6 +482,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1767,16 +1815,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1800,217 +1848,475 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050100559</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092050522231</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092050514451</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092050532834</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092050533378</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868529042681378</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868529042682335</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868529042682558</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092050900056</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092051527015</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>869092051524996</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092051527031</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092051527130</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092051525753</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050550177</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694050552454</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050085455</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694050552777</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694050549831</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092050886339</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050886396</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092050886610</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092050886156</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092050499232</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092051543558</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092051543475</v>
+      </c>
       <c r="D27" s="6"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868529042014679</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868529042652932</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>868529042509777</v>
+      </c>
       <c r="D30" s="6"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868790050278198</v>
+      </c>
       <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694050585017</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050585934</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694050814854</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694050844455</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5">
+        <v>861180050064938</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2030,26 +2336,26 @@
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -2086,38 +2392,40 @@
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -2204,17 +2512,11 @@
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="C66" s="9"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2411,11 +2713,9 @@
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
@@ -2622,10 +2922,10 @@
       <c r="C185" s="9"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -2639,13 +2939,10 @@
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="11"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A3:C15">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6195,7 +6492,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23585,6 +23882,2009 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050065257</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050068137</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050060712</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050062296</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050061199</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050060670</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>861180050059938</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>861180050060738</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050059995</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050065992</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="9"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790050200838</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790050198776</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790050196994</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790050198339</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790050208377</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790050194619</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050204590</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868790050193199</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790050197059</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050197075</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050196697</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="8">
+        <v>868790050191995</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790050196119</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790050195913</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790050195772</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868790050198370</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868790050196713</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790050197091</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790050197158</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868790050197372</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868790050196614</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868790050207411</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868790050198495</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="5">
+        <v>868790050196952</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868790050204335</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="9"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28633,8 +30933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29985,14 +32285,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="1" max="1" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -30296,480 +32596,1111 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868529042679935</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868529042681071</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050565415</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092050900510</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092051505896</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868529042680735</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <v>862539044679532</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5">
+        <v>862539044613812</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050634518</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694050654656</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694050626050</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050562370</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694050550334</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092050899019</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092050900759</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694050085216</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5">
+        <v>861180050065653</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867872050191950</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092051462932</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092050899910</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092050900031</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694050654359</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092051468350</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5">
+        <v>862539044729030</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="5">
+        <v>862539044727513</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5">
+        <v>868790050280178</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092051461652</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092050522512</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092050511572</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869694050586312</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869694050592039</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869694050589993</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869694050732213</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869694050849512</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="5">
+        <v>868790050278396</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092051462734</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092050899415</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869092050820718</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869694050586171</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869694050573518</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869694050589456</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869694050588318</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869694050851930</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869694050844398</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="4">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5">
+        <v>861180050067113</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="4">
+        <v>8</v>
+      </c>
+      <c r="C67" s="5">
+        <v>861180050060274</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="5">
+        <v>868790050282414</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869092051466891</v>
+      </c>
+      <c r="D69" s="6"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869092051181098</v>
+      </c>
+      <c r="D70" s="6"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869092051506134</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869092051506696</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869092050899332</v>
+      </c>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="5">
+        <v>869092050532032</v>
+      </c>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="5">
+        <v>869092050522439</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869092050900130</v>
+      </c>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="5">
+        <v>869694050590116</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869694050586395</v>
+      </c>
+      <c r="D78" s="6"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="5">
+        <v>869694050573450</v>
+      </c>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="5">
+        <v>869694050844471</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="5">
+        <v>869694050839471</v>
+      </c>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="5">
+        <v>868790050284196</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="5">
+        <v>869092051321294</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="5">
+        <v>862539044790511</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="5">
+        <v>862539043977937</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="5">
+        <v>869092051464771</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="5">
+        <v>869694050843739</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="5">
+        <v>868529042703230</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="5">
+        <v>869092051470430</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="5">
+        <v>869694050842277</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="4">
+        <v>8</v>
+      </c>
+      <c r="C91" s="5">
+        <v>861180050099199</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C112" s="9"/>
       <c r="G112" s="9"/>
     </row>
@@ -31022,6 +33953,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A22:D39">
+    <sortCondition ref="A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="14" activeTab="32"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,24 @@
     <sheet name="Raj Transfer 8" sheetId="32" r:id="rId32"/>
     <sheet name="Nat Receive C20A" sheetId="33" r:id="rId33"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10'!$A$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11'!$A$1:$D$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$A$1:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$A$1:$D$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5'!$A$1:$E$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'6'!$A$1:$D$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'7'!$A$1:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8'!$A$1:$D$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'9'!$A$1:$D$91</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="113">
   <si>
     <t>Retail Name</t>
   </si>
@@ -168,9 +180,6 @@
     <t>Sohan enterprise</t>
   </si>
   <si>
-    <t>Sikreeti Times</t>
-  </si>
-  <si>
     <t>c21/64</t>
   </si>
   <si>
@@ -264,9 +273,6 @@
     <t>CD Sound</t>
   </si>
   <si>
-    <t>Sikreeti Times//Kabir</t>
-  </si>
-  <si>
     <t>Dipto Mobile</t>
   </si>
   <si>
@@ -274,9 +280,6 @@
   </si>
   <si>
     <t>G-Store</t>
-  </si>
-  <si>
-    <t>MK Telecom//Kabir</t>
   </si>
   <si>
     <t>Motiur Telecom//Kabir</t>
@@ -361,6 +364,39 @@
   </si>
   <si>
     <t>Natore to Rajshahi</t>
+  </si>
+  <si>
+    <t>Dighe Telecom</t>
+  </si>
+  <si>
+    <t>Parvej Cus//Kabir Tel</t>
+  </si>
+  <si>
+    <t>c5/64</t>
+  </si>
+  <si>
+    <t>Hridro Mobile</t>
+  </si>
+  <si>
+    <t>Mimi Electronics</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Kabir//Bina Mobile</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Kabir//Sikreeti Times</t>
+  </si>
+  <si>
+    <t>Kabir//MK Telecom</t>
+  </si>
+  <si>
+    <t>C21/32</t>
   </si>
 </sst>
 </file>
@@ -794,7 +830,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5">
         <v>869092050522231</v>
@@ -1880,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>869092050514451</v>
@@ -1894,7 +1930,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>869092050532834</v>
@@ -1908,7 +1944,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>869092050533378</v>
@@ -1964,7 +2000,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
         <v>869092050900056</v>
@@ -2118,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5">
         <v>869092050886339</v>
@@ -2132,7 +2168,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>869092050886396</v>
@@ -2146,7 +2182,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
         <v>869092050886610</v>
@@ -2160,7 +2196,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5">
         <v>869092050886156</v>
@@ -2174,7 +2210,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5">
         <v>869092050499232</v>
@@ -2186,664 +2222,1386 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5">
-        <v>869092051543558</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>869694050550615</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5">
-        <v>869092051543475</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>869694050653237</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5">
-        <v>868529042014679</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>869694050625573</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="5">
-        <v>868529042652932</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>868529042803919</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5">
-        <v>868529042509777</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>869092050703872</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5">
-        <v>868790050278198</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>869092050513438</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C32" s="5">
-        <v>869694050585017</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>869694050082551</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5">
-        <v>869694050585934</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>869694050550250</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5">
-        <v>869694050814854</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>868790050283818</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5">
-        <v>869694050844455</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>869092050703716</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4">
+        <v>102</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092050899316</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092050900858</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092050899472</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092050900338</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092051527353</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092051461694</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092051524954</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092051526736</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092051480991</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694050654557</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694050653591</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694050650076</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050653351</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694050846815</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694050808690</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869694050588912</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869694050573633</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="4">
         <v>8</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C53" s="5">
+        <v>861180050060050</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="5">
+        <v>867872050191851</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092051543558</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092051543475</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5">
+        <v>868529042014679</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="5">
+        <v>868529042652932</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="5">
+        <v>868529042509777</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="5">
+        <v>868790050278198</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869694050585017</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869694050585934</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869694050814854</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869694050844455</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="4">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5">
         <v>861180050064938</v>
       </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="9"/>
+      <c r="A66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869092051543533</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="9"/>
+      <c r="A67" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869694050574391</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="5">
+        <v>869092051538418</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869092050897476</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869694050574094</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="5">
+        <v>868529042014612</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="4">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5">
+        <v>861180050065133</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="5">
+        <v>868790050275293</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5">
+        <v>862539044686917</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5">
+        <v>862539045003278</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869092051537956</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="5">
+        <v>869092051542378</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869694050574292</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="5">
+        <v>869694050844679</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="5">
+        <v>869092051466370</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="5">
+        <v>869092051537659</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="4">
+        <v>8</v>
+      </c>
+      <c r="C82" s="12">
+        <v>861180050059516</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="5">
+        <v>869694050552652</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="5">
+        <v>869694050554054</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="5">
+        <v>869694050552710</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="5">
+        <v>869694050183656</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="5">
+        <v>869694050851278</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="5">
+        <v>869694050844752</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="4">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5">
+        <v>861180050067154</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C158" s="9"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C159" s="9"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C160" s="9"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
@@ -2940,8 +3698,9 @@
       <c r="C191" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A2"/>
+  <autoFilter ref="A1:D89"/>
+  <sortState ref="A26:D89">
+    <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2951,14 +3710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2982,654 +3741,1379 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050095858</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050586411</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051487152</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092051484571</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050588599</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050886818</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050886354</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050589910</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050637438</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790050193199</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868529042680818</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694050178573</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050116672</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050814771</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050851393</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694050842616</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868790050196952</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868790050195772</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092050886677</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051481338</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092051480876</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051526215</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050807379</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694050815497</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694050817477</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694050843572</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694050813039</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694050198712</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050565696</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694050199157</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694050199033</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050198431</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694050198837</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694050187871</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869694050451558</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694050188473</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869694050191410</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092051486873</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092051486758</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092051487657</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092051482336</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869092051487038</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092050499315</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092050886651</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092050886370</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092050512836</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092050514634</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="5">
+        <v>868790050197372</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="5">
+        <v>868790050195913</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="5">
+        <v>868790050207411</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="5">
+        <v>868790050197158</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="5">
+        <v>868790050198495</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092050898797</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092050498473</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="5">
+        <v>868790050204590</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="5">
+        <v>868790050196119</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869694050844232</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869694050843556</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869694050107911</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869694050829670</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092051486857</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869694050561059</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869694050561331</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869694050562552</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
+      <c r="A66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869694050562198</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869694050190230</v>
+      </c>
       <c r="D67" s="6"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="5">
+        <v>869694050190438</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869694050559392</v>
+      </c>
+      <c r="D69" s="6"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869092051483235</v>
+      </c>
+      <c r="D70" s="6"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869092051496450</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869092050498598</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869092051492350</v>
+      </c>
+      <c r="D73" s="6"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="5">
+        <v>869092051496096</v>
+      </c>
+      <c r="D74" s="6"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="5">
+        <v>868529041699793</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
@@ -3828,6 +5312,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D65"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10916,8 +12401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10957,7 +12442,7 @@
         <v>861627041302033</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10971,7 +12456,7 @@
         <v>861627041704139</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10985,7 +12470,7 @@
         <v>869092051204250</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10999,7 +12484,7 @@
         <v>861627041640077</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11027,7 +12512,7 @@
         <v>868529042703057</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11041,7 +12526,7 @@
         <v>868529042703131</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11083,7 +12568,7 @@
         <v>862539044802670</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -11139,12 +12624,12 @@
         <v>868529042805837</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -11152,11 +12637,13 @@
       <c r="C16" s="5">
         <v>869092050701579</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -11164,11 +12651,13 @@
       <c r="C17" s="5">
         <v>869694050085273</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -11176,35 +12665,41 @@
       <c r="C18" s="5">
         <v>869694050085554</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="5">
         <v>869092050790416</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="5">
         <v>869092050806451</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>31</v>
@@ -11212,11 +12707,13 @@
       <c r="C21" s="5">
         <v>869092051204656</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -11224,11 +12721,13 @@
       <c r="C22" s="5">
         <v>869092051204979</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>31</v>
@@ -11236,11 +12735,13 @@
       <c r="C23" s="5">
         <v>869092051204375</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>31</v>
@@ -11248,11 +12749,13 @@
       <c r="C24" s="5">
         <v>869092051204896</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
@@ -11260,11 +12763,13 @@
       <c r="C25" s="5">
         <v>869092051204813</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>31</v>
@@ -11272,7 +12777,9 @@
       <c r="C26" s="5">
         <v>869092051203971</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11300,7 +12807,7 @@
         <v>868529042890359</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -11314,13 +12821,13 @@
         <v>868529042896356</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>15</v>
@@ -11329,12 +12836,12 @@
         <v>868529042803170</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -11343,13 +12850,13 @@
         <v>862539044991515</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
@@ -11358,13 +12865,13 @@
         <v>869092051207113</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>31</v>
@@ -11373,12 +12880,12 @@
         <v>869092051207055</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>12</v>
@@ -11387,12 +12894,12 @@
         <v>869694050084599</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
@@ -11401,12 +12908,12 @@
         <v>869694050626456</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>31</v>
@@ -11415,12 +12922,12 @@
         <v>869092051209077</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>31</v>
@@ -11429,29 +12936,29 @@
         <v>869092051209358</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5">
         <v>869092050806717</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5">
         <v>869092050701553</v>
@@ -11462,7 +12969,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4">
         <v>8</v>
@@ -11476,7 +12983,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4">
         <v>8</v>
@@ -11491,7 +12998,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>31</v>
@@ -11500,13 +13007,13 @@
         <v>869092051204391</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>12</v>
@@ -11515,12 +13022,12 @@
         <v>869694050624154</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>21</v>
@@ -11529,12 +13036,12 @@
         <v>867872050083751</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>31</v>
@@ -11543,12 +13050,12 @@
         <v>869092051218912</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>31</v>
@@ -11557,12 +13064,12 @@
         <v>869092051219035</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>27</v>
@@ -11571,12 +13078,12 @@
         <v>861627041704113</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>27</v>
@@ -11585,7 +13092,7 @@
         <v>861627041703974</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -12147,6 +13654,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D48"/>
   <sortState ref="A2:D48">
     <sortCondition ref="D48"/>
   </sortState>
@@ -21008,8 +22516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22109,6 +23617,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D29"/>
   <sortState ref="A2:D29">
     <sortCondition ref="A2"/>
   </sortState>
@@ -23908,7 +25417,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -23930,7 +25439,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -23942,7 +25451,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
@@ -23954,7 +25463,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -23966,7 +25475,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
@@ -23978,7 +25487,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -23990,7 +25499,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <v>8</v>
@@ -24002,7 +25511,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -24014,7 +25523,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
@@ -24026,7 +25535,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4">
         <v>8</v>
@@ -24038,7 +25547,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
@@ -24847,8 +26356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24865,7 +26374,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -24887,10 +26396,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="5">
         <v>868790050200838</v>
@@ -24899,10 +26408,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5">
         <v>868790050198776</v>
@@ -24911,10 +26420,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5">
         <v>868790050196994</v>
@@ -24923,10 +26432,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5">
         <v>868790050198339</v>
@@ -24935,10 +26444,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="5">
         <v>868790050208377</v>
@@ -24947,10 +26456,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5">
         <v>868790050194619</v>
@@ -24959,10 +26468,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="5">
         <v>868790050204590</v>
@@ -24971,10 +26480,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5">
         <v>868790050193199</v>
@@ -24983,10 +26492,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5">
         <v>868790050197059</v>
@@ -24995,10 +26504,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5">
         <v>868790050197075</v>
@@ -25007,10 +26516,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5">
         <v>868790050196697</v>
@@ -25019,10 +26528,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8">
         <v>868790050191995</v>
@@ -25031,10 +26540,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="5">
         <v>868790050196119</v>
@@ -25043,10 +26552,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5">
         <v>868790050195913</v>
@@ -25055,10 +26564,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="5">
         <v>868790050195772</v>
@@ -25067,10 +26576,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5">
         <v>868790050198370</v>
@@ -25079,10 +26588,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="5">
         <v>868790050196713</v>
@@ -25091,10 +26600,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C20" s="5">
         <v>868790050197091</v>
@@ -25103,10 +26612,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5">
         <v>868790050197158</v>
@@ -25115,10 +26624,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5">
         <v>868790050197372</v>
@@ -25127,10 +26636,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" s="5">
         <v>868790050196614</v>
@@ -25139,10 +26648,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C24" s="5">
         <v>868790050207411</v>
@@ -25151,10 +26660,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25" s="5">
         <v>868790050198495</v>
@@ -25163,10 +26672,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" s="5">
         <v>868790050196952</v>
@@ -25175,10 +26684,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C27" s="5">
         <v>868790050204335</v>
@@ -25893,8 +27402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25934,7 +27443,7 @@
         <v>868529042702919</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25942,13 +27451,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
         <v>863726050807573</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -25962,7 +27471,7 @@
         <v>869092051480850</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -25976,24 +27485,26 @@
         <v>869694050084995</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5">
         <v>863726050806914</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -26001,11 +27512,13 @@
       <c r="C7" s="5">
         <v>869092050807517</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -26013,25 +27526,27 @@
       <c r="C8" s="5">
         <v>869092050618476</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5">
         <v>863726050807656</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -26040,12 +27555,12 @@
         <v>869694050818012</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4">
         <v>8</v>
@@ -26054,7 +27569,7 @@
         <v>861180050060498</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -26062,18 +27577,18 @@
         <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8">
         <v>863726050807417</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
@@ -26082,12 +27597,12 @@
         <v>869092051481171</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -26096,12 +27611,12 @@
         <v>869694050842335</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -26110,12 +27625,12 @@
         <v>869694050626118</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -26124,12 +27639,12 @@
         <v>869694050563493</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -26138,12 +27653,12 @@
         <v>869694050566991</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -26152,7 +27667,7 @@
         <v>869694050626399</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -26160,13 +27675,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>863726050807813</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -26174,13 +27689,13 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5">
         <v>863726050807458</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -26194,7 +27709,7 @@
         <v>869694050840578</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -26202,18 +27717,18 @@
         <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5">
         <v>869694050827757</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -26222,12 +27737,12 @@
         <v>869694050832518</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
@@ -26236,12 +27751,12 @@
         <v>869092051492574</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>5</v>
@@ -26250,12 +27765,12 @@
         <v>869092051481437</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>5</v>
@@ -26264,13 +27779,13 @@
         <v>869092050701678</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -26279,12 +27794,12 @@
         <v>869694050565639</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
@@ -26293,12 +27808,12 @@
         <v>869694050751098</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
@@ -26307,7 +27822,7 @@
         <v>869694050846930</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="9"/>
     </row>
@@ -26316,33 +27831,33 @@
         <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5">
         <v>863726050807698</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C31" s="5">
         <v>863726050807771</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
@@ -26351,13 +27866,13 @@
         <v>869092051480975</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
@@ -26366,12 +27881,12 @@
         <v>869092051492913</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>12</v>
@@ -26380,12 +27895,12 @@
         <v>869694050842434</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -26393,11 +27908,13 @@
       <c r="C35" s="5">
         <v>862539044727877</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -26405,11 +27922,13 @@
       <c r="C36" s="5">
         <v>862539043980774</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
@@ -26417,11 +27936,13 @@
       <c r="C37" s="5">
         <v>862539044964132</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>12</v>
@@ -26429,11 +27950,13 @@
       <c r="C38" s="5">
         <v>869694050848977</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>12</v>
@@ -26441,11 +27964,13 @@
       <c r="C39" s="5">
         <v>869694050846377</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
@@ -26459,7 +27984,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>12</v>
@@ -26468,7 +27993,7 @@
         <v>869694050624352</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -26483,7 +28008,7 @@
         <v>869694050177914</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="9"/>
     </row>
@@ -26498,7 +28023,7 @@
         <v>869694050085315</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -26512,7 +28037,7 @@
         <v>869694050565795</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -26540,7 +28065,7 @@
         <v>869694050565191</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -26558,7 +28083,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5">
         <v>869694050845452</v>
@@ -26572,7 +28097,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="5">
         <v>863726050807276</v>
@@ -26586,7 +28111,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5">
         <v>869694050846070</v>
@@ -26601,7 +28126,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="12">
         <v>869694050844893</v>
@@ -27150,6 +28675,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D51"/>
   <sortState ref="A2:D51">
     <sortCondition ref="A2"/>
   </sortState>
@@ -27161,8 +28687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27177,7 +28703,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27191,21 +28717,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="12">
         <v>863726050806997</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -27219,24 +28748,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5">
         <v>868790050199796</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5">
         <v>868790050184834</v>
@@ -27245,12 +28776,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5">
         <v>868790050185534</v>
@@ -27259,12 +28790,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C7" s="5">
         <v>868790050197711</v>
@@ -27273,12 +28804,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C8" s="5">
         <v>868790050199774</v>
@@ -27287,12 +28818,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C9" s="5">
         <v>868790050199691</v>
@@ -27301,9 +28832,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -27315,9 +28846,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -27329,7 +28860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -27343,12 +28874,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
         <v>868790050185732</v>
@@ -27357,12 +28888,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5">
         <v>868790050186599</v>
@@ -27371,12 +28902,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5">
         <v>868790050188876</v>
@@ -27385,12 +28916,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5">
         <v>868790050185658</v>
@@ -27401,12 +28932,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="12">
         <v>869092050806899</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -27415,16 +28946,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5">
         <v>868790050185294</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -27452,40 +28983,40 @@
         <v>869694050633734</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5">
         <v>868790050199352</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5">
         <v>868790050198297</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>31</v>
@@ -27494,26 +29025,26 @@
         <v>869092051324256</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5">
         <v>869092050788717</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>26</v>
@@ -27522,7 +29053,7 @@
         <v>869694050573930</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -27532,11 +29063,14 @@
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="12">
         <v>869092051323878</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="E26" s="2">
+        <v>100</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -27573,7 +29107,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5">
         <v>868790050199154</v>
@@ -27588,7 +29122,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8">
         <v>868790050199816</v>
@@ -27602,7 +29136,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="5">
         <v>868790050197513</v>
@@ -27617,7 +29151,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5">
         <v>868790050197794</v>
@@ -27629,7 +29163,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
@@ -27643,7 +29177,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>31</v>
@@ -27657,7 +29191,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>15</v>
@@ -27671,7 +29205,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -27685,10 +29219,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="5">
         <v>868790050195376</v>
@@ -27699,10 +29233,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5">
         <v>868790050196192</v>
@@ -27730,7 +29264,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5">
         <v>868790050193221</v>
@@ -27744,7 +29278,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5">
         <v>868790050194650</v>
@@ -27771,10 +29305,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="5">
         <v>868790050196630</v>
@@ -27785,7 +29319,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>31</v>
@@ -27799,7 +29333,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>31</v>
@@ -27813,31 +29347,35 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5">
         <v>868790050195335</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="5">
         <v>868790050192993</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
@@ -27845,11 +29383,13 @@
       <c r="C48" s="5">
         <v>869092051489513</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>31</v>
@@ -27857,11 +29397,13 @@
       <c r="C49" s="5">
         <v>869092051493135</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>26</v>
@@ -27869,40 +29411,46 @@
       <c r="C50" s="5">
         <v>869694050651850</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="5">
         <v>869694050851070</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="5">
         <v>869694050846153</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="5">
         <v>868790050196457</v>
@@ -27931,7 +29479,7 @@
         <v>14</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="5">
         <v>869092050790275</v>
@@ -27946,7 +29494,7 @@
         <v>14</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="5">
         <v>869694050651538</v>
@@ -27961,7 +29509,7 @@
         <v>14</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="5">
         <v>869694050842475</v>
@@ -28003,7 +29551,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>31</v>
@@ -28018,10 +29566,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" s="5">
         <v>869092050791356</v>
@@ -28036,7 +29584,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="5">
         <v>869092050704136</v>
@@ -28051,7 +29599,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="5">
         <v>869092050395810</v>
@@ -28063,7 +29611,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>26</v>
@@ -28081,7 +29629,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="5">
         <v>868790050195871</v>
@@ -28096,7 +29644,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="5">
         <v>868790050196911</v>
@@ -28111,7 +29659,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="5">
         <v>869694050812890</v>
@@ -28550,6 +30098,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E67"/>
   <sortState ref="A3:D32">
     <sortCondition ref="A2"/>
   </sortState>
@@ -28561,8 +30110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28624,7 +30173,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5">
         <v>867872050370034</v>
@@ -28694,7 +30243,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <v>869092050819397</v>
@@ -28708,7 +30257,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5">
         <v>869694050845072</v>
@@ -28750,7 +30299,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8">
         <v>868790050201737</v>
@@ -28775,10 +30324,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5">
         <v>868790050205613</v>
@@ -28789,7 +30338,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -28806,7 +30355,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5">
         <v>868790050202198</v>
@@ -28820,7 +30369,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5">
         <v>868790050201851</v>
@@ -28834,7 +30383,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5">
         <v>868790050202396</v>
@@ -28848,7 +30397,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="5">
         <v>868790050202156</v>
@@ -28862,7 +30411,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5">
         <v>868790050203139</v>
@@ -28873,10 +30422,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>869092050818993</v>
@@ -28887,7 +30436,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4">
         <v>8</v>
@@ -28901,35 +30450,35 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5">
         <v>868790050196770</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5">
         <v>868790050196531</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
@@ -28938,13 +30487,13 @@
         <v>869694050633296</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
@@ -28953,41 +30502,41 @@
         <v>869694050633056</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="5">
         <v>869694050842392</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5">
         <v>869694050818079</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="4">
         <v>8</v>
@@ -29001,7 +30550,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -29009,12 +30558,14 @@
       <c r="C31" s="5">
         <v>862532043978075</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -29022,51 +30573,59 @@
       <c r="C32" s="5">
         <v>862539043978570</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5">
         <v>868790050195657</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5">
         <v>868790050193959</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5">
         <v>868790050194817</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="5">
         <v>868790050194791</v>
@@ -29077,10 +30636,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="5">
         <v>868790050194890</v>
@@ -29091,10 +30650,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5">
         <v>868790050196812</v>
@@ -29105,7 +30664,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>26</v>
@@ -29119,7 +30678,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>26</v>
@@ -29133,7 +30692,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4">
         <v>8</v>
@@ -29148,7 +30707,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="4">
         <v>8</v>
@@ -29163,10 +30722,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="5">
         <v>868790050194734</v>
@@ -29177,21 +30736,21 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="5">
         <v>868790050196374</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>26</v>
@@ -29205,10 +30764,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="5">
         <v>869092050820932</v>
@@ -29222,7 +30781,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="5">
         <v>867872050364953</v>
@@ -29294,7 +30853,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="5">
         <v>868790050206017</v>
@@ -29322,7 +30881,7 @@
         <v>28</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="5">
         <v>867872050365737</v>
@@ -29337,7 +30896,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="5">
         <v>867872050370091</v>
@@ -29352,7 +30911,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="5">
         <v>869092050820791</v>
@@ -29367,7 +30926,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="5">
         <v>869092050821237</v>
@@ -29382,7 +30941,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="5">
         <v>869092050818233</v>
@@ -29424,7 +30983,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>31</v>
@@ -29439,7 +30998,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>26</v>
@@ -29924,6 +31483,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D63"/>
   <sortState ref="B2:C12">
     <sortCondition ref="B2"/>
   </sortState>
@@ -29937,7 +31497,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30055,7 +31615,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5">
         <v>868790050185195</v>
@@ -30069,7 +31629,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5">
         <v>868790050202412</v>
@@ -30083,7 +31643,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5">
         <v>868790050202230</v>
@@ -30097,7 +31657,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5">
         <v>868790050185518</v>
@@ -30139,7 +31699,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5">
         <v>869092050818811</v>
@@ -30925,6 +32485,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30933,8 +32494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30965,10 +32526,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5">
         <v>869092050703914</v>
@@ -30979,7 +32540,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -30993,7 +32554,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
@@ -31007,7 +32568,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -31021,7 +32582,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -31035,10 +32596,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5">
         <v>869092050702270</v>
@@ -31049,10 +32610,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5">
         <v>869092050789897</v>
@@ -31063,10 +32624,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <v>869092050520698</v>
@@ -31077,10 +32638,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
         <v>869092050396719</v>
@@ -31091,10 +32652,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5">
         <v>868790050283834</v>
@@ -31105,10 +32666,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5">
         <v>868790050281937</v>
@@ -31119,10 +32680,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8">
         <v>868790050282018</v>
@@ -31133,10 +32694,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5">
         <v>868790050283115</v>
@@ -31147,10 +32708,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5">
         <v>868790050282851</v>
@@ -31161,10 +32722,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5">
         <v>868790050283214</v>
@@ -31175,7 +32736,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -31189,7 +32750,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -31203,7 +32764,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -31217,10 +32778,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>869694050842236</v>
@@ -31231,10 +32792,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5">
         <v>868790050282711</v>
@@ -31245,10 +32806,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>869092050819637</v>
@@ -31290,7 +32851,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5">
         <v>868790050282430</v>
@@ -31376,7 +32937,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="5">
         <v>869694050846013</v>
@@ -31388,10 +32949,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5">
         <v>868790050282299</v>
@@ -31403,10 +32964,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5">
         <v>868790050283974</v>
@@ -31417,7 +32978,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -31431,10 +32992,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5">
         <v>868790050282935</v>
@@ -31445,10 +33006,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="5">
         <v>868790050281911</v>
@@ -31487,10 +33048,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5">
         <v>869092050395950</v>
@@ -31533,7 +33094,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5">
         <v>869092050537593</v>
@@ -31548,7 +33109,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="5">
         <v>869092050653358</v>
@@ -31562,7 +33123,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5">
         <v>869092050648895</v>
@@ -31618,7 +33179,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" s="5">
         <v>869694050852631</v>
@@ -31687,7 +33248,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>31</v>
@@ -31701,7 +33262,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>26</v>
@@ -31716,10 +33277,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5">
         <v>868790050281754</v>
@@ -31731,7 +33292,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>31</v>
@@ -31746,10 +33307,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="5">
         <v>8690920505531010</v>
@@ -31761,10 +33322,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="5">
         <v>869092050619177</v>
@@ -31776,10 +33337,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="5">
         <v>869694050588854</v>
@@ -32274,6 +33835,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D59"/>
   <sortState ref="B3:C10">
     <sortCondition ref="B2"/>
   </sortState>
@@ -32285,8 +33847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32320,7 +33882,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5">
         <v>868529041852335</v>
@@ -32334,7 +33896,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5">
         <v>868529042804939</v>
@@ -32348,7 +33910,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="5">
         <v>868529042510197</v>
@@ -32362,7 +33924,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5">
         <v>868529042805993</v>
@@ -32446,7 +34008,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5">
         <v>869092050900197</v>
@@ -32460,7 +34022,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5">
         <v>869092050898854</v>
@@ -32474,7 +34036,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="8">
         <v>869092050899753</v>
@@ -32488,7 +34050,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5">
         <v>869092050522496</v>
@@ -32502,7 +34064,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="5">
         <v>862539043981038</v>
@@ -32516,7 +34078,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5">
         <v>869092050537635</v>
@@ -32530,7 +34092,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5">
         <v>869092050899654</v>
@@ -32544,7 +34106,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5">
         <v>869092050513479</v>
@@ -32558,7 +34120,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5">
         <v>869092050901179</v>
@@ -32572,7 +34134,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C20" s="5">
         <v>869092050900478</v>
@@ -32586,7 +34148,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5">
         <v>869092050899696</v>
@@ -32740,7 +34302,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>26</v>
@@ -32755,7 +34317,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>26</v>
@@ -32769,7 +34331,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -32786,7 +34348,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5">
         <v>869092050899019</v>
@@ -32800,7 +34362,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5">
         <v>869092050900759</v>
@@ -32853,7 +34415,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
@@ -32867,10 +34429,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5">
         <v>869092050899910</v>
@@ -32882,10 +34444,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5">
         <v>869092050900031</v>
@@ -32897,7 +34459,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>26</v>
@@ -32911,7 +34473,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>31</v>
@@ -32925,7 +34487,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>7</v>
@@ -32939,7 +34501,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>7</v>
@@ -32953,10 +34515,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="5">
         <v>868790050280178</v>
@@ -32967,7 +34529,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
@@ -32981,10 +34543,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="5">
         <v>869092050522512</v>
@@ -32995,10 +34557,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="5">
         <v>869092050511572</v>
@@ -33010,7 +34572,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>26</v>
@@ -33025,7 +34587,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>26</v>
@@ -33039,7 +34601,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>26</v>
@@ -33053,10 +34615,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="5">
         <v>869694050732213</v>
@@ -33068,10 +34630,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="5">
         <v>869694050849512</v>
@@ -33083,10 +34645,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="5">
         <v>868790050278396</v>
@@ -33098,7 +34660,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>31</v>
@@ -33113,10 +34675,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="5">
         <v>869092050899415</v>
@@ -33128,10 +34690,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="5">
         <v>869092050820718</v>
@@ -33143,7 +34705,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>26</v>
@@ -33158,7 +34720,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>26</v>
@@ -33173,7 +34735,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>26</v>
@@ -33188,7 +34750,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>26</v>
@@ -33203,10 +34765,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="5">
         <v>869694050851930</v>
@@ -33218,10 +34780,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="5">
         <v>869694050844398</v>
@@ -33233,7 +34795,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="4">
         <v>8</v>
@@ -33248,7 +34810,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="4">
         <v>8</v>
@@ -33263,20 +34825,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="5">
         <v>868790050282414</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>31</v>
@@ -33284,12 +34848,14 @@
       <c r="C69" s="5">
         <v>869092051466891</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>31</v>
@@ -33297,12 +34863,14 @@
       <c r="C70" s="5">
         <v>869092051181098</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>31</v>
@@ -33310,12 +34878,14 @@
       <c r="C71" s="5">
         <v>869092051506134</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>31</v>
@@ -33323,64 +34893,74 @@
       <c r="C72" s="5">
         <v>869092051506696</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C73" s="5">
         <v>869092050899332</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C74" s="5">
         <v>869092050532032</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C75" s="5">
         <v>869092050522439</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C76" s="5">
         <v>869092050900130</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>26</v>
@@ -33388,12 +34968,14 @@
       <c r="C77" s="5">
         <v>869694050590116</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>26</v>
@@ -33401,12 +34983,14 @@
       <c r="C78" s="5">
         <v>869694050586395</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>26</v>
@@ -33414,41 +34998,47 @@
       <c r="C79" s="5">
         <v>869694050573450</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" s="5">
         <v>869694050844471</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="5">
         <v>869694050839471</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C82" s="5">
         <v>868790050284196</v>
@@ -33460,7 +35050,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>31</v>
@@ -33475,7 +35065,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
@@ -33490,7 +35080,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>7</v>
@@ -33505,7 +35095,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>31</v>
@@ -33520,10 +35110,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" s="5">
         <v>869694050843739</v>
@@ -33535,7 +35125,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>15</v>
@@ -33550,7 +35140,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>31</v>
@@ -33565,10 +35155,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="5">
         <v>869694050842277</v>
@@ -33580,7 +35170,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B91" s="4">
         <v>8</v>
@@ -33953,6 +35543,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D91"/>
   <sortState ref="A22:D39">
     <sortCondition ref="A22"/>
   </sortState>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="14" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10'!$A$1:$D$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11'!$A$1:$D$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11'!$A$1:$D$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$A$1:$D$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$A$1:$D$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$A$1:$D$51</definedName>
@@ -53,12 +53,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8'!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'9'!$A$1:$D$91</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="130">
   <si>
     <t>Retail Name</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Mimi Electronics</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Kabir//Bina Mobile</t>
   </si>
   <si>
@@ -397,6 +394,60 @@
   </si>
   <si>
     <t>C21/32</t>
+  </si>
+  <si>
+    <t>C21/64</t>
+  </si>
+  <si>
+    <t>Desh Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  c21/64</t>
+  </si>
+  <si>
+    <t>T.M Electronics</t>
+  </si>
+  <si>
+    <t>Kabir//Likhon Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Sathi Computer</t>
+  </si>
+  <si>
+    <t>Kabir // Rimi Telecom</t>
+  </si>
+  <si>
+    <t>c25/54</t>
+  </si>
+  <si>
+    <t>Kabir // Bismillah Naldan</t>
+  </si>
+  <si>
+    <t>Bismilla Telecom</t>
+  </si>
+  <si>
+    <t>Mollah Mobile</t>
+  </si>
+  <si>
+    <t>Mitali Store</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Raj//OK</t>
+  </si>
+  <si>
+    <t>Kabir Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Bosundhora</t>
+  </si>
+  <si>
+    <t>Pre OK</t>
+  </si>
+  <si>
+    <t>kabir//nabila</t>
   </si>
 </sst>
 </file>
@@ -830,7 +881,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2346,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>40</v>
@@ -2309,7 +2360,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>26</v>
@@ -2323,7 +2374,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>26</v>
@@ -2908,7 +2959,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>61</v>
@@ -2923,7 +2974,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
@@ -2938,7 +2989,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
@@ -2953,7 +3004,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>31</v>
@@ -2968,7 +3019,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>31</v>
@@ -2983,7 +3034,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>26</v>
@@ -2998,7 +3049,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>51</v>
@@ -3013,7 +3064,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>31</v>
@@ -3708,10 +3759,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,211 +3792,211 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="4">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="5">
-        <v>861180050095858</v>
+        <v>869092051486857</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="5">
-        <v>869694050586411</v>
+        <v>869694050561059</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5">
-        <v>869092051487152</v>
+        <v>869694050562198</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
-        <v>869092051484571</v>
+        <v>869694050190230</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>869694050588599</v>
+        <v>869694050190438</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
-        <v>869092050886818</v>
+        <v>869694050559392</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C8" s="5">
-        <v>869092050886354</v>
+        <v>869092051483235</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C9" s="5">
-        <v>869694050589910</v>
+        <v>869092051496450</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C10" s="5">
-        <v>869694050637438</v>
+        <v>869092050498598</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5">
-        <v>868790050193199</v>
+        <v>869092051492350</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C12" s="5">
-        <v>868529042680818</v>
+        <v>869092051496096</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8">
-        <v>869694050178573</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868529041699793</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5">
-        <v>869694050116672</v>
+        <v>869694050844232</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="5">
-        <v>869694050814771</v>
+        <v>869694050843556</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="5">
-        <v>869694050851393</v>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8">
+        <v>869694050178573</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
@@ -3955,226 +4007,231 @@
         <v>73</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5">
-        <v>869694050842616</v>
+        <v>869694050116672</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>868790050196952</v>
+        <v>869694050814771</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5">
-        <v>868790050195772</v>
+        <v>869694050851393</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
-        <v>869092050886677</v>
+        <v>869694050842616</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5">
-        <v>869092051481338</v>
+        <v>868790050196952</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5">
-        <v>869092051480876</v>
+        <v>868790050195772</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092050886677</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
+        <v>869092051481338</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092051480876</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5">
         <v>869092051526215</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="5">
-        <v>869694050807379</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="5">
-        <v>869694050815497</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092050898797</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="5">
-        <v>869694050817477</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="5">
-        <v>869694050843572</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5">
-        <v>869694050813039</v>
+        <v>869092050498473</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5">
-        <v>869694050198712</v>
+        <v>868790050204590</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C30" s="5">
-        <v>869694050565696</v>
+        <v>868790050196119</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="5">
-        <v>869694050199157</v>
+        <v>869694050561331</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="5">
-        <v>869694050199033</v>
+        <v>869694050562552</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="G32" s="9"/>
     </row>
@@ -4186,611 +4243,648 @@
         <v>26</v>
       </c>
       <c r="C33" s="5">
-        <v>869694050198431</v>
+        <v>869694050107911</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5">
-        <v>869694050198837</v>
+        <v>869694050829670</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5">
-        <v>869694050187871</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>107</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5">
+        <v>861180050060795</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092050886511</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="5">
+        <v>868790050197059</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="5">
-        <v>869694050451558</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="5">
-        <v>869694050188473</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="5">
-        <v>869694050191410</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C39" s="5">
-        <v>869092051486873</v>
+        <v>869694050628254</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5">
-        <v>869092051486758</v>
+        <v>868790050196614</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5">
-        <v>869092051487657</v>
+        <v>868790050194619</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C42" s="5">
-        <v>869092051482336</v>
+        <v>868790050198370</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="5">
-        <v>869092051487038</v>
+        <v>869092501503776</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="5">
-        <v>869092050499315</v>
+        <v>869092050489399</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="5">
+        <v>868790050204335</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="5">
+        <v>868790050198339</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694050597616</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050657931</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694050652536</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694050651314</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="5">
+        <v>868790050196713</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="5">
+        <v>868790050197075</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="5">
+        <v>868790050197091</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="5">
+        <v>868790050191995</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092051468970</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092051493697</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092051466297</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="5">
-        <v>869092050886651</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="5">
-        <v>869092050886370</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="5">
-        <v>869092050512836</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="5">
-        <v>869092050514634</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="5">
-        <v>868790050197372</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="5">
-        <v>868790050195913</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="5">
-        <v>868790050207411</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="5">
-        <v>868790050197158</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="5">
-        <v>868790050198495</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="5">
-        <v>869092050898797</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="5">
-        <v>869092050498473</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="5">
-        <v>868790050204590</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="5">
-        <v>868790050196119</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C58" s="5">
-        <v>869694050844232</v>
+        <v>869092050897591</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C59" s="5">
-        <v>869694050843556</v>
+        <v>869092050648895</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869092050897955</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="5">
-        <v>869694050107911</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C61" s="5">
-        <v>869694050829670</v>
+        <v>869694050658236</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="5">
-        <v>869092051486857</v>
+        <v>869694050657519</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869694050849777</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="4">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5">
+        <v>861180050095551</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869092051543277</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869092050898334</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869092050897898</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="5">
+        <v>868529042623495</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="5">
+        <v>86879050200838</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869092050898151</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869092050898573</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869694050651470</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="5">
-        <v>869694050561059</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="5">
-        <v>869694050561331</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="5">
-        <v>869694050562552</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="5">
-        <v>869694050562198</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="5">
-        <v>869694050190230</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="5">
-        <v>869694050190438</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="5">
-        <v>869694050559392</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="5">
-        <v>869092051483235</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="5">
-        <v>869092051496450</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="5">
-        <v>869092050498598</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="C73" s="5">
-        <v>869092051492350</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>869092050898433</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>76</v>
+        <v>121</v>
+      </c>
+      <c r="B74" s="4">
+        <v>8</v>
       </c>
       <c r="C74" s="5">
-        <v>869092051496096</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>861180050056058</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C75" s="5">
-        <v>868529041699793</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>868790050208377</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869092051525316</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4801,10 +4895,18 @@
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
+      <c r="A78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869694050433697</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4882,238 +4984,122 @@
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="6"/>
-      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
-      <c r="G90" s="9"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
-      <c r="G93" s="9"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
-      <c r="G94" s="9"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
-      <c r="G95" s="9"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="6"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="6"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="6"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="6"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="6"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="6"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="6"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="6"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="6"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="6"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="6"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="6"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
@@ -5207,112 +5193,34 @@
       <c r="C158" s="9"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
+      <c r="C164" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D65"/>
+  <autoFilter ref="A1:D76">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Pre-OK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:D45">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5321,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5352,846 +5260,2252 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050654631</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050562495</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050190396</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050191733</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050653393</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694050560374</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694050114552</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050634658</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050565399</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694050192079</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694050199173</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694050657451</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050191857</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050657774</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050657832</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050537072</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092050709713</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092050520490</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092050709770</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092050536918</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050708558</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092050538419</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092050701835</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092050536553</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092050708012</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092051494059</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092051537576</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092051469671</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092051496252</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092051462916</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092051487475</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092051496393</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092051493937</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868529042623156</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868529041852533</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5">
+        <v>868529041746594</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="5">
+        <v>868529042139815</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="5">
+        <v>868529042633338</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694050775519</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869694050849157</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="4">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5">
+        <v>861180050096153</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>861180050066792</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868790050196994</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="5">
+        <v>868790050198776</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694050192657</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694050192335</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050188432</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694050192632</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694050192392</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869694050842756</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869694050848936</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="5">
+        <v>868529042139773</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5">
+        <v>868529042682459</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="5">
+        <v>868529042680776</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869694050807379</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869694050815497</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869694050817477</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869694050843572</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869694050813039</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869694050198712</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869694050565696</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869694050199157</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869694050199033</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869694050198431</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869694050198837</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869694050187871</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="5">
+        <v>869694050451558</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869694050188473</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869694050191410</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869092051486873</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869092051486758</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869092051487657</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="5">
+        <v>869092051482336</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="5">
+        <v>869092051487038</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869092050499315</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="5">
+        <v>869092050886651</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="5">
+        <v>869092050886370</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="5">
+        <v>869092050512836</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="5">
+        <v>869092050514634</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="5">
+        <v>868790050197372</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="5">
+        <v>868790050195913</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="5">
+        <v>868790050207411</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="5">
+        <v>868790050197158</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="5">
+        <v>868790050198495</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="4">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5">
+        <v>861180050095858</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="5">
+        <v>869694050586411</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="5">
+        <v>869092051487152</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="5">
+        <v>869092051484571</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="5">
+        <v>869694050588599</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="5">
+        <v>869092050886818</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="5">
+        <v>869092050886354</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="5">
+        <v>869694050589910</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="5">
+        <v>869694050637438</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="5">
+        <v>868790050193199</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="5">
+        <v>868529042680818</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="5">
+        <v>869092051481833</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="5">
+        <v>869092051324298</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="4">
+        <v>8</v>
+      </c>
+      <c r="C99" s="5">
+        <v>861180050064516</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="5">
+        <v>869092050532131</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="5">
+        <v>869092050706255</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="5">
+        <v>869694050606573</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="5">
+        <v>869694050191774</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="5">
+        <v>869092051481510</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="5">
+        <v>869092051484811</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="5">
+        <v>869092051321492</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="5">
+        <v>869092050706214</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="5">
+        <v>869092050709473</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="5">
+        <v>869694050116458</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="5">
+        <v>869694050198878</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="5">
+        <v>869694050604297</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="5">
+        <v>869694050851153</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" s="5">
+        <v>869694050850452</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="5">
+        <v>868529041746198</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="5">
+        <v>868529041699231</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="5">
+        <v>869694050191816</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="5">
+        <v>869092050707097</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="4">
+        <v>8</v>
+      </c>
+      <c r="C118" s="5">
+        <v>861180050059490</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" s="5">
+        <v>868790050196697</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="5">
+        <v>869694050607274</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="5">
+        <v>868529042510072</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="5">
+        <v>869694050607357</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="5">
+        <v>869694050607118</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="5">
+        <v>868529042681717</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="5">
+        <v>868529042139716</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="5">
+        <v>869092051484415</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="5">
+        <v>869092051466651</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="5">
+        <v>869092051324090</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="5">
+        <v>869092050521019</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="5">
+        <v>869092050897112</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="5">
+        <v>868529042703073</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C190" s="11"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C191" s="11"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
@@ -12401,7 +13715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -12629,7 +13943,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -12643,7 +13957,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -12657,7 +13971,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -12671,7 +13985,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>40</v>
@@ -12685,7 +13999,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -12699,7 +14013,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>31</v>
@@ -12713,7 +14027,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -12727,7 +14041,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>31</v>
@@ -12741,7 +14055,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>31</v>
@@ -12755,7 +14069,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
@@ -12769,7 +14083,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>31</v>
@@ -20747,7 +22061,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22516,7 +23830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -26356,8 +27670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27490,7 +28804,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>50</v>
@@ -27504,7 +28818,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -27518,7 +28832,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -27900,7 +29214,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -27914,7 +29228,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -27928,7 +29242,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
@@ -27942,7 +29256,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>12</v>
@@ -27956,7 +29270,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>12</v>
@@ -28687,8 +30001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28750,7 +30064,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>61</v>
@@ -29347,7 +30661,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>61</v>
@@ -29361,7 +30675,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>61</v>
@@ -29375,7 +30689,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
@@ -29389,7 +30703,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>31</v>
@@ -29403,7 +30717,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>26</v>
@@ -29418,7 +30732,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>51</v>
@@ -29433,7 +30747,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>51</v>
@@ -29670,7 +30984,18 @@
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="9">
+        <v>868790050189155</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -30110,8 +31435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30550,7 +31875,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -30565,7 +31890,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -30580,7 +31905,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>61</v>
@@ -30594,7 +31919,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>61</v>
@@ -30608,7 +31933,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>61</v>
@@ -31027,10 +32352,18 @@
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869092050821112</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -34825,7 +36158,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>61</v>
@@ -34840,7 +36173,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>31</v>
@@ -34855,7 +36188,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>31</v>
@@ -34870,7 +36203,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>31</v>
@@ -34885,7 +36218,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>31</v>
@@ -34900,7 +36233,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>40</v>
@@ -34915,7 +36248,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>40</v>
@@ -34930,7 +36263,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>40</v>
@@ -34945,7 +36278,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>40</v>
@@ -34960,7 +36293,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>26</v>
@@ -34975,7 +36308,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>26</v>
@@ -34990,7 +36323,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>26</v>
@@ -35005,7 +36338,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>51</v>
@@ -35020,7 +36353,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>51</v>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="14" activeTab="32"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10'!$A$1:$D$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11'!$A$1:$D$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11'!$A$1:$D$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$1:$D$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$A$1:$D$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$A$1:$D$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$A$1:$D$51</definedName>
@@ -52,13 +53,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'7'!$A$1:$D$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8'!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'9'!$A$1:$D$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'Nat Receive C20A'!$A$2:$D$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="147">
   <si>
     <t>Retail Name</t>
   </si>
@@ -384,9 +386,6 @@
     <t>Kabir//Bina Mobile</t>
   </si>
   <si>
-    <t>Raj</t>
-  </si>
-  <si>
     <t>Kabir//Sikreeti Times</t>
   </si>
   <si>
@@ -435,9 +434,6 @@
     <t>Demo</t>
   </si>
   <si>
-    <t>Raj//OK</t>
-  </si>
-  <si>
     <t>Kabir Telecom</t>
   </si>
   <si>
@@ -448,6 +444,63 @@
   </si>
   <si>
     <t>kabir//nabila</t>
+  </si>
+  <si>
+    <t>Narzo 30 A</t>
+  </si>
+  <si>
+    <t>Apurbo Telecom</t>
+  </si>
+  <si>
+    <t>G-store</t>
+  </si>
+  <si>
+    <t>SM Mobile Plus</t>
+  </si>
+  <si>
+    <t>Trisha telecom</t>
+  </si>
+  <si>
+    <t>Mobile Forest</t>
+  </si>
+  <si>
+    <t>Raj//SM Mobile Plus</t>
+  </si>
+  <si>
+    <t>Raj//Trisha telecom</t>
+  </si>
+  <si>
+    <t>Raj//Mobile Forest</t>
+  </si>
+  <si>
+    <t>Raj//Mobile Hut-R</t>
+  </si>
+  <si>
+    <t>Raj//Arif Telecom-RR</t>
+  </si>
+  <si>
+    <t>Raj//SM Enterprise</t>
+  </si>
+  <si>
+    <t>Raj//Mayer Doa-R</t>
+  </si>
+  <si>
+    <t>Raj//Rubel Telecom2</t>
+  </si>
+  <si>
+    <t>Arif Telecom-RR</t>
+  </si>
+  <si>
+    <t>Rubel Telecom2</t>
+  </si>
+  <si>
+    <t>Mayer Doa-R</t>
+  </si>
+  <si>
+    <t>Mobile Hut-R</t>
+  </si>
+  <si>
+    <t>SM Enterprise</t>
   </si>
 </sst>
 </file>
@@ -532,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +625,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1904,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,7 +3015,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>61</v>
@@ -2974,7 +3030,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
@@ -2989,7 +3045,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
@@ -3004,7 +3060,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>31</v>
@@ -3019,7 +3075,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>31</v>
@@ -3034,7 +3090,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>26</v>
@@ -3049,7 +3105,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>51</v>
@@ -3064,7 +3120,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>31</v>
@@ -3759,11 +3815,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,7 +3847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -3806,7 +3861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -3820,7 +3875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -3834,7 +3889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -3848,7 +3903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -3862,7 +3917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3876,12 +3931,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="5">
         <v>869092051483235</v>
@@ -3890,12 +3945,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5">
         <v>869092051496450</v>
@@ -3904,12 +3959,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5">
         <v>869092050498598</v>
@@ -3918,12 +3973,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5">
         <v>869092051492350</v>
@@ -3932,7 +3987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -3946,7 +4001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -3960,7 +4015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -3974,7 +4029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -3988,7 +4043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -4016,7 +4071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
@@ -4030,7 +4085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -4044,7 +4099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>73</v>
       </c>
@@ -4058,7 +4113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -4069,10 +4124,10 @@
         <v>868790050196952</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>73</v>
       </c>
@@ -4083,10 +4138,10 @@
         <v>868790050195772</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>73</v>
       </c>
@@ -4100,7 +4155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -4115,7 +4170,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>73</v>
       </c>
@@ -4130,7 +4185,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
@@ -4145,7 +4200,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
@@ -4160,7 +4215,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>107</v>
       </c>
@@ -4175,7 +4230,7 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -4186,11 +4241,11 @@
         <v>868790050204590</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -4201,11 +4256,11 @@
         <v>868790050196119</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -4220,7 +4275,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>89</v>
       </c>
@@ -4250,7 +4305,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
@@ -4265,7 +4320,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -4287,7 +4342,7 @@
       </c>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -4302,7 +4357,7 @@
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -4317,7 +4372,7 @@
       </c>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -4332,7 +4387,7 @@
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -4343,11 +4398,11 @@
         <v>868790050196614</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -4358,11 +4413,11 @@
         <v>868790050194619</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -4392,7 +4447,7 @@
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -4407,7 +4462,7 @@
       </c>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
@@ -4418,11 +4473,11 @@
         <v>868790050204335</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
@@ -4433,11 +4488,11 @@
         <v>868790050198339</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
@@ -4452,7 +4507,7 @@
       </c>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
@@ -4467,7 +4522,7 @@
       </c>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -4482,7 +4537,7 @@
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
@@ -4497,7 +4552,7 @@
       </c>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
@@ -4508,11 +4563,11 @@
         <v>868790050196713</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>44</v>
       </c>
@@ -4523,11 +4578,11 @@
         <v>868790050197075</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>44</v>
       </c>
@@ -4538,11 +4593,11 @@
         <v>868790050197091</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
@@ -4553,11 +4608,11 @@
         <v>868790050191995</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>44</v>
       </c>
@@ -4572,7 +4627,7 @@
       </c>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
@@ -4587,7 +4642,7 @@
       </c>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>44</v>
       </c>
@@ -4602,7 +4657,7 @@
       </c>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>44</v>
       </c>
@@ -4622,7 +4677,7 @@
         <v>44</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="5">
         <v>869092050648895</v>
@@ -4632,7 +4687,7 @@
       </c>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>44</v>
       </c>
@@ -4647,7 +4702,7 @@
       </c>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>44</v>
       </c>
@@ -4662,7 +4717,7 @@
       </c>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>44</v>
       </c>
@@ -4677,7 +4732,7 @@
       </c>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>44</v>
       </c>
@@ -4692,7 +4747,7 @@
       </c>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>44</v>
       </c>
@@ -4707,9 +4762,9 @@
       </c>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>31</v>
@@ -4722,9 +4777,9 @@
       </c>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>40</v>
@@ -4737,9 +4792,9 @@
       </c>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>40</v>
@@ -4752,9 +4807,9 @@
       </c>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>15</v>
@@ -4767,24 +4822,24 @@
       </c>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C69" s="5">
-        <v>86879050200838</v>
+        <v>868790050200838</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>40</v>
@@ -4797,9 +4852,9 @@
       </c>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>40</v>
@@ -4812,12 +4867,12 @@
       </c>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="C72" s="5">
         <v>869694050651470</v>
@@ -4827,9 +4882,9 @@
       </c>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>26</v>
@@ -4842,9 +4897,9 @@
       </c>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="4">
         <v>8</v>
@@ -4857,9 +4912,9 @@
       </c>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>61</v>
@@ -4872,9 +4927,9 @@
       </c>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>31</v>
@@ -4891,12 +4946,14 @@
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>93</v>
@@ -4905,15 +4962,11 @@
         <v>869694050433697</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5211,13 +5264,7 @@
       <c r="C164" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D76">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Pre-OK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D78"/>
   <sortState ref="A2:D45">
     <sortCondition ref="A2"/>
   </sortState>
@@ -5229,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,7 +5521,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="5">
         <v>869092050537072</v>
@@ -5488,7 +5535,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="5">
         <v>869092050709713</v>
@@ -5502,7 +5549,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5">
         <v>869092050520490</v>
@@ -5516,7 +5563,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="5">
         <v>869092050709770</v>
@@ -5530,7 +5577,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="5">
         <v>869092050536918</v>
@@ -5544,7 +5591,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="5">
         <v>869092050708558</v>
@@ -5558,7 +5605,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="5">
         <v>869092050538419</v>
@@ -5572,7 +5619,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5">
         <v>869092050701835</v>
@@ -5586,7 +5633,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="5">
         <v>869092050536553</v>
@@ -5600,7 +5647,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="5">
         <v>869092050708012</v>
@@ -5615,7 +5662,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="5">
         <v>869092051494059</v>
@@ -5629,7 +5676,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="5">
         <v>869092051537576</v>
@@ -5643,7 +5690,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="5">
         <v>869092051469671</v>
@@ -5658,7 +5705,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="5">
         <v>869092051496252</v>
@@ -5672,7 +5719,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="5">
         <v>869092051462916</v>
@@ -5687,7 +5734,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="5">
         <v>869092051487475</v>
@@ -5702,7 +5749,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="5">
         <v>869092051496393</v>
@@ -5716,7 +5763,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="5">
         <v>869092051493937</v>
@@ -5863,8 +5910,8 @@
       <c r="C44" s="5">
         <v>868790050196994</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>108</v>
+      <c r="D44" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5877,13 +5924,13 @@
       <c r="C45" s="5">
         <v>868790050198776</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>108</v>
+      <c r="D45" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>26</v>
@@ -5897,7 +5944,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>26</v>
@@ -5911,7 +5958,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>26</v>
@@ -5925,7 +5972,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>26</v>
@@ -5939,7 +5986,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>26</v>
@@ -5954,7 +6001,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>91</v>
@@ -5969,7 +6016,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>91</v>
@@ -5983,7 +6030,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>76</v>
@@ -5997,7 +6044,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>76</v>
@@ -6012,7 +6059,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>76</v>
@@ -6410,8 +6457,8 @@
       <c r="C81" s="5">
         <v>868790050197372</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>108</v>
+      <c r="D81" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G81" s="9"/>
     </row>
@@ -6425,8 +6472,8 @@
       <c r="C82" s="5">
         <v>868790050195913</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>108</v>
+      <c r="D82" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G82" s="9"/>
     </row>
@@ -6440,8 +6487,8 @@
       <c r="C83" s="5">
         <v>868790050207411</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>108</v>
+      <c r="D83" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G83" s="9"/>
     </row>
@@ -6455,8 +6502,8 @@
       <c r="C84" s="5">
         <v>868790050197158</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>108</v>
+      <c r="D84" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G84" s="9"/>
     </row>
@@ -6470,8 +6517,8 @@
       <c r="C85" s="5">
         <v>868790050198495</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>108</v>
+      <c r="D85" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G85" s="9"/>
     </row>
@@ -6620,8 +6667,8 @@
       <c r="C95" s="5">
         <v>868790050193199</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>108</v>
+      <c r="D95" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G95" s="9"/>
     </row>
@@ -6831,7 +6878,7 @@
         <v>869694050116458</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G109" s="9"/>
     </row>
@@ -6942,7 +6989,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>5</v>
@@ -6957,7 +7004,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" s="4">
         <v>8</v>
@@ -6971,7 +7018,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>61</v>
@@ -6985,7 +7032,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>26</v>
@@ -6999,7 +7046,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>15</v>
@@ -7152,154 +7199,354 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="6"/>
+      <c r="A132" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="4">
+        <v>8</v>
+      </c>
+      <c r="C132" s="5">
+        <v>861180050096435</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="6"/>
+      <c r="A133" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="5">
+        <v>869092050707097</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="6"/>
+      <c r="A134" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="4">
+        <v>8</v>
+      </c>
+      <c r="C134" s="5">
+        <v>861180050059490</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="6"/>
+      <c r="A135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="4">
+        <v>8</v>
+      </c>
+      <c r="C135" s="5">
+        <v>861180050059839</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
+      <c r="A136" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="5">
+        <v>869092050709895</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="6"/>
+      <c r="A137" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C137" s="5">
+        <v>869092050535753</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="6"/>
+      <c r="A138" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="5">
+        <v>869092050535456</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="6"/>
+      <c r="A139" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="5">
+        <v>869092050535175</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="6"/>
+      <c r="A140" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="5">
+        <v>869092050530614</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="6"/>
+      <c r="A141" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="5">
+        <v>869092050536017</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="6"/>
+      <c r="A142" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="5">
+        <v>869092050536496</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="6"/>
+      <c r="A143" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="5">
+        <v>869092050530713</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="6"/>
+      <c r="A144" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="5">
+        <v>869092050536199</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="6"/>
+      <c r="A145" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="5">
+        <v>869092050535514</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="6"/>
+      <c r="A146" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="5">
+        <v>869092050536637</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="6"/>
+      <c r="A147" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="5">
+        <v>869694050607191</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="6"/>
+      <c r="A148" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="5">
+        <v>869694050606391</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="6"/>
+      <c r="A149" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="5">
+        <v>869694050606292</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="6"/>
+      <c r="A150" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="5">
+        <v>869694050605658</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="6"/>
+      <c r="A151" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="5">
+        <v>869694050606359</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="6"/>
+      <c r="A152" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="5">
+        <v>869694050604479</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="6"/>
+      <c r="A153" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="5">
+        <v>869694050605716</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="6"/>
+      <c r="A154" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="5">
+        <v>869694050605575</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="6"/>
+      <c r="A155" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" s="5">
+        <v>869694050607399</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="6"/>
+      <c r="A156" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="5">
+        <v>869694050604693</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
@@ -7512,6 +7759,7 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D156"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7520,14 +7768,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -7551,172 +7799,340 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050606011</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050192012</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092050522454</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092050520953</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="5">
+        <v>863726050831458</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863726050831979</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="5">
+        <v>863726050831953</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="5">
+        <v>863726050821855</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="5">
+        <v>863726050811138</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="5">
+        <v>863726050842034</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092050896718</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869092050705430</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092051462999</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868529042507672</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868529042509413</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868529042509173</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868529042895093</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>861180050095973</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092051467014</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051543350</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="5">
+        <v>863726050811633</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="5">
+        <v>863726050815931</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="5">
+        <v>863726050834593</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="5">
+        <v>863726050836457</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092050535316</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092050705794</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694050187376</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694050194034</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
@@ -13943,7 +14359,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -13957,7 +14373,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -13971,7 +14387,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -13985,7 +14401,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>40</v>
@@ -13999,7 +14415,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -14013,7 +14429,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>31</v>
@@ -14027,7 +14443,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -14041,7 +14457,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>31</v>
@@ -14055,7 +14471,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>31</v>
@@ -14069,7 +14485,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
@@ -14083,7 +14499,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>31</v>
@@ -26714,7 +27130,7 @@
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27670,8 +28086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27730,7 +28146,9 @@
       <c r="C4" s="5">
         <v>868790050198776</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -27742,7 +28160,9 @@
       <c r="C5" s="5">
         <v>868790050196994</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -27778,7 +28198,9 @@
       <c r="C8" s="5">
         <v>868790050194619</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -27826,7 +28248,9 @@
       <c r="C12" s="5">
         <v>868790050197075</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -27910,7 +28334,9 @@
       <c r="C19" s="5">
         <v>868790050196713</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -27922,7 +28348,9 @@
       <c r="C20" s="5">
         <v>868790050197091</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -27958,7 +28386,9 @@
       <c r="C23" s="5">
         <v>868790050196614</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -27982,7 +28412,9 @@
       <c r="C25" s="5">
         <v>868790050198495</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -28006,7 +28438,9 @@
       <c r="C27" s="5">
         <v>868790050204335</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -28705,6 +29139,7 @@
       <c r="C194" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D27"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -29214,7 +29649,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -29228,7 +29663,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -29242,7 +29677,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
@@ -29256,7 +29691,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>12</v>
@@ -29270,7 +29705,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>12</v>
@@ -30661,7 +31096,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>61</v>
@@ -30675,7 +31110,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>61</v>
@@ -30689,7 +31124,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
@@ -30703,7 +31138,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>31</v>
@@ -30717,7 +31152,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>26</v>
@@ -30732,7 +31167,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>51</v>
@@ -30747,7 +31182,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>51</v>
@@ -31875,7 +32310,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -31890,7 +32325,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -31905,7 +32340,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>61</v>
@@ -31919,7 +32354,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>61</v>
@@ -31933,7 +32368,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>61</v>
@@ -32353,7 +32788,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>40</v>
@@ -33827,7 +34262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -35180,7 +35615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -36158,7 +36593,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>61</v>
@@ -36173,7 +36608,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>31</v>
@@ -36188,7 +36623,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>31</v>
@@ -36203,7 +36638,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>31</v>
@@ -36218,7 +36653,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>31</v>
@@ -36233,7 +36668,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>40</v>
@@ -36248,7 +36683,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>40</v>
@@ -36263,7 +36698,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>40</v>
@@ -36278,7 +36713,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>40</v>
@@ -36293,7 +36728,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>26</v>
@@ -36308,7 +36743,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>26</v>
@@ -36323,7 +36758,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>26</v>
@@ -36338,7 +36773,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>51</v>
@@ -36353,7 +36788,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>51</v>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="156">
   <si>
     <t>Retail Name</t>
   </si>
@@ -502,6 +502,33 @@
   <si>
     <t>SM Enterprise</t>
   </si>
+  <si>
+    <t>Arham Elctronics</t>
+  </si>
+  <si>
+    <t>Kabir//Bina Mobiel</t>
+  </si>
+  <si>
+    <t>Bismillah Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Likhon Tel</t>
+  </si>
+  <si>
+    <t>Friends Mobile collection</t>
+  </si>
+  <si>
+    <t>SR Elcetronics</t>
+  </si>
+  <si>
+    <t>Biswah Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Moom Telecom</t>
+  </si>
+  <si>
+    <t>Not - Inputted</t>
+  </si>
 </sst>
 </file>
 
@@ -624,10 +651,10 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,8 +5303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133:C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5910,7 +5937,7 @@
       <c r="C44" s="5">
         <v>868790050196994</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7766,16 +7793,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
@@ -7800,821 +7827,1633 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5">
-        <v>869694050606011</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>863726050823711</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C3" s="5">
-        <v>869694050192012</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>863726050831094</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C4" s="5">
-        <v>869092050522454</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>863726050828777</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C5" s="5">
-        <v>869092050520953</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>863726050830898</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="5">
-        <v>863726050831458</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>863726050829296</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5">
-        <v>863726050831979</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>869694050606011</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5">
-        <v>863726050831953</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>869694050192012</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C9" s="5">
-        <v>863726050821855</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>869092050522454</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C10" s="5">
-        <v>863726050811138</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>869092050520953</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="5">
-        <v>863726050842034</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>863726050831458</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5">
-        <v>869092050896718</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>863726050831979</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="8">
-        <v>869092050705430</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694050082056</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C14" s="5">
-        <v>869092051462999</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>863726050833256</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5">
-        <v>868529042507672</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>869092050532958</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C16" s="5">
-        <v>868529042509413</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>869694050118256</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5">
-        <v>868529042509173</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>869092050510798</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>153</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
       </c>
       <c r="C18" s="5">
-        <v>868529042895093</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>861180050091477</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4">
-        <v>8</v>
+        <v>153</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C19" s="5">
-        <v>861180050095973</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>863726050811310</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C20" s="5">
-        <v>869092051467014</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>863726050816178</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C21" s="5">
-        <v>869092051543350</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>863726050815691</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="5">
-        <v>863726050811633</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>863726050811898</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
-        <v>863726050815931</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>869092050705976</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>128</v>
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8</v>
       </c>
       <c r="C24" s="5">
-        <v>863726050834593</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>861180050095973</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C25" s="5">
-        <v>863726050836457</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>869092051543350</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C26" s="5">
-        <v>869092050535316</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
+        <v>863726050832894</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C27" s="5">
-        <v>869092050705794</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>863726050832910</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C28" s="5">
-        <v>869694050187376</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>863726050833116</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="5">
+        <v>863726050831672</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <v>861180050095759</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="5">
+        <v>863726050831953</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="5">
+        <v>863726050821855</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="5">
+        <v>863726050811138</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="5">
+        <v>863726050842034</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092050896718</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="8">
+        <v>869092050705430</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092050520995</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092050536538</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="5">
+        <v>868529041852574</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="5">
+        <v>863726050811476</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="5">
+        <v>863726050811674</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="5">
+        <v>863726050815592</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694050844190</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="5">
+        <v>863726050811575</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="5">
+        <v>863726050836697</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="5">
+        <v>863726050836671</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869092050534939</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694050607035</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="5">
+        <v>863726050811633</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="5">
+        <v>863726050815931</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="5">
+        <v>863726050834593</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="5">
+        <v>863726050836457</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092050535316</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092050705794</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C55" s="5">
+        <v>869694050187376</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="5">
         <v>869694050194034</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092051462999</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="5">
+        <v>868529042507672</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="5">
+        <v>868529042509413</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="5">
+        <v>868529042895093</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="5">
+        <v>863726050830575</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="5">
+        <v>863726050832290</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="5">
+        <v>863726050831714</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869092051467014</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="5">
+        <v>863726050826250</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="5">
+        <v>863726050830757</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869092050898375</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="5">
+        <v>869694050088251</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869694050088574</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869694050092337</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869694050090653</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869694050087790</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869694050088178</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="5">
+        <v>869694050118132</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="5">
+        <v>869694050116110</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869694050082932</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="5">
+        <v>869694050080530</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="5">
+        <v>863726050828512</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="5">
+        <v>863726050830450</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="5">
+        <v>863726050811914</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="5">
+        <v>863726050811450</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="5">
+        <v>869092050534731</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="4">
+        <v>8</v>
+      </c>
+      <c r="C83" s="5">
+        <v>861180050096054</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="5">
+        <v>863726050821913</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="5">
+        <v>863726050821871</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="5">
+        <v>868529042509413</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="5">
+        <v>868529042509678</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="5">
+        <v>868529041308098</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="4">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5">
+        <v>861180050065190</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="5">
+        <v>863726050834452</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="5">
+        <v>863726050815493</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="5">
+        <v>863726050830716</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="5">
+        <v>863726050830534</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="5">
+        <v>863726050831219</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="5">
+        <v>863426050832811</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="5">
+        <v>863726050831896</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="5">
+        <v>863726050830971</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="5">
+        <v>869092050530432</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="5">
+        <v>869092050540217</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="5">
+        <v>869092050532552</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="5">
+        <v>869092050516274</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="5">
+        <v>863726050833033</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="5">
+        <v>863726050832472</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="5">
+        <v>863726050832670</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="5">
+        <v>863726050832456</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
@@ -8792,7 +9631,7 @@
       <c r="C186" s="9"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -8809,10 +9648,10 @@
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:D105">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14131,8 +14970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24246,8 +25085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27146,12 +27985,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -28103,12 +28942,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29152,7 +29991,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30436,8 +31275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31870,8 +32709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33265,7 +34104,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34262,8 +35101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35615,8 +36454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="158">
   <si>
     <t>Retail Name</t>
   </si>
@@ -529,6 +529,12 @@
   <si>
     <t>Not - Inputted</t>
   </si>
+  <si>
+    <t>Kabir Telecom/ Rofiqul</t>
+  </si>
+  <si>
+    <t>Narzo30A</t>
+  </si>
 </sst>
 </file>
 
@@ -963,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5301,10 +5307,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133:C134"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7576,70 +7582,158 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="6"/>
+      <c r="A157" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="5">
+        <v>869694050606516</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="6"/>
+      <c r="A158" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="5">
+        <v>869694050606698</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="6"/>
+      <c r="A159" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" s="5">
+        <v>869694050606979</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="6"/>
+      <c r="A160" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="5">
+        <v>869694050606656</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="6"/>
+      <c r="A161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="5">
+        <v>869694050606474</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="6"/>
+      <c r="A162" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="5">
+        <v>869092050896577</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="6"/>
+      <c r="A163" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="5">
+        <v>869092050898532</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="6"/>
+      <c r="A164" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164" s="5">
+        <v>869092050897211</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="6"/>
+      <c r="A165" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="5">
+        <v>869092050709853</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="6"/>
+      <c r="A166" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="5">
+        <v>869092050709150</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="6"/>
+      <c r="A167" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" s="4">
+        <v>8</v>
+      </c>
+      <c r="C167" s="5">
+        <v>861180050063971</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
@@ -7768,10 +7862,7 @@
       <c r="D188" s="6"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="6"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C190" s="11"/>
@@ -7781,9 +7872,6 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D156"/>
@@ -7796,7 +7884,7 @@
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11430,8 +11518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11461,46 +11549,102 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092050522090</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092050534996</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050117936</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050183250</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050606813</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863726050811617</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="5">
+        <v>863726050811591</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="161">
   <si>
     <t>Retail Name</t>
   </si>
@@ -535,6 +535,15 @@
   <si>
     <t>Narzo30A</t>
   </si>
+  <si>
+    <t>Kabir Tel//Tutul</t>
+  </si>
+  <si>
+    <t>oK</t>
+  </si>
+  <si>
+    <t>OK//Exchange</t>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,8 +669,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,16 +3197,16 @@
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="15">
         <v>8</v>
       </c>
       <c r="C82" s="12">
         <v>861180050059516</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G82" s="9"/>
@@ -3851,7 +3866,7 @@
   <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="A64" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,7 +5325,7 @@
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+      <selection activeCell="A160" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7884,7 +7899,7 @@
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+      <selection activeCell="A88" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11518,8 +11533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12456,6 +12471,971 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050607092</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050188051</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050081850</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867872050189756</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050118272</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050707972</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694050116391</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050081892</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092050514998</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092051217631</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
@@ -12490,991 +13470,212 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050081330</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050187970</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>861180050114378</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="12">
+        <v>869092051975537</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="12">
+        <v>869092051976436</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12">
+        <v>868790050478293</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="12">
+        <v>868790050479234</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="12">
+        <v>868790050478434</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092050709457</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092050704730</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694050199157</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694050199033</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050188473</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050187871</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050198837</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050514634</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092050499315</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -28129,12 +28330,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29086,12 +29287,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="164">
   <si>
     <t>Retail Name</t>
   </si>
@@ -544,6 +544,15 @@
   <si>
     <t>OK//Exchange</t>
   </si>
+  <si>
+    <t xml:space="preserve"> OK Zilani Mobile </t>
+  </si>
+  <si>
+    <t>Tuhin Telecom</t>
+  </si>
+  <si>
+    <t>C20a</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,11 +681,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2008,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3221,7 @@
       <c r="C82" s="12">
         <v>861180050059516</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G82" s="9"/>
@@ -12474,8 +12489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13439,8 +13454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13479,7 +13494,9 @@
       <c r="C2" s="5">
         <v>869694050081330</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -13491,79 +13508,93 @@
       <c r="C3" s="5">
         <v>869694050187970</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="4">
         <v>8</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="5">
         <v>861180050114378</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="5">
         <v>869092051975537</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="5">
         <v>869092051976436</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="5">
         <v>868790050478293</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="5">
         <v>868790050479234</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="5">
         <v>868790050478434</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -13595,111 +13626,143 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="12">
         <v>869694050199157</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
+      <c r="D12" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="19">
         <v>869694050199033</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
+      <c r="D13" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="12">
         <v>869694050188473</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
+      <c r="D14" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>869694050187871</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
+      <c r="D15" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <v>869694050198837</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
+      <c r="D16" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="12">
         <v>869092050514634</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
+      <c r="D17" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="12">
         <v>869092050499315</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
+      <c r="D18" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868790050479051</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790050479374</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092050521837</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050534756</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -14430,8 +14493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14461,46 +14524,102 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790050478673</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790050544995</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868529042824994</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050929439</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050783893</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694050117290</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694050195072</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -28330,12 +28449,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29287,12 +29406,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="175">
   <si>
     <t>Retail Name</t>
   </si>
@@ -440,9 +440,6 @@
     <t>Kabir//Bosundhora</t>
   </si>
   <si>
-    <t>Pre OK</t>
-  </si>
-  <si>
     <t>kabir//nabila</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>Kabir//Moom Telecom</t>
   </si>
   <si>
-    <t>Not - Inputted</t>
-  </si>
-  <si>
     <t>Kabir Telecom/ Rofiqul</t>
   </si>
   <si>
@@ -552,6 +546,45 @@
   </si>
   <si>
     <t>C20a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxy Mobile </t>
+  </si>
+  <si>
+    <t>Sohan Bhai//Kabir</t>
+  </si>
+  <si>
+    <t>Kabir//Liton Telecom</t>
+  </si>
+  <si>
+    <t>Kabir// Bismillah Naldanga</t>
+  </si>
+  <si>
+    <t>MK Telecom</t>
+  </si>
+  <si>
+    <t>Zilani Pre-OK</t>
+  </si>
+  <si>
+    <t>Siddik Pre-OK</t>
+  </si>
+  <si>
+    <t>Brothers//Pre-OK</t>
+  </si>
+  <si>
+    <t>Siddik//Pre-OK</t>
+  </si>
+  <si>
+    <t>Hello Natore//Pre-OK</t>
+  </si>
+  <si>
+    <t>Electronics Zone//Pre OK</t>
+  </si>
+  <si>
+    <t>SR Electronics//Pre OK</t>
+  </si>
+  <si>
+    <t>Tuhin Mobile//Pre OK</t>
   </si>
 </sst>
 </file>
@@ -684,13 +717,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3880,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A64" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4461,7 +4494,7 @@
         <v>868790050196614</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="9"/>
     </row>
@@ -4476,7 +4509,7 @@
         <v>868790050194619</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -4536,7 +4569,7 @@
         <v>868790050204335</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" s="9"/>
     </row>
@@ -4626,7 +4659,7 @@
         <v>868790050196713</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G51" s="9"/>
     </row>
@@ -4641,7 +4674,7 @@
         <v>868790050197075</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="9"/>
     </row>
@@ -4656,7 +4689,7 @@
         <v>868790050197091</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" s="9"/>
     </row>
@@ -5339,8 +5372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A160" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,7 +6007,7 @@
         <v>868790050196994</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5988,7 +6021,7 @@
         <v>868790050198776</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6581,7 +6614,7 @@
         <v>868790050198495</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G85" s="9"/>
     </row>
@@ -6941,7 +6974,7 @@
         <v>869694050116458</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="G109" s="9"/>
     </row>
@@ -7720,7 +7753,7 @@
         <v>869092050897211</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -7762,7 +7795,7 @@
         <v>861180050063971</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -7913,8 +7946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A88" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7948,7 +7981,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="5">
         <v>863726050823711</v>
@@ -7962,7 +7995,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="5">
         <v>863726050831094</v>
@@ -7976,7 +8009,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="5">
         <v>863726050828777</v>
@@ -7990,7 +8023,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="5">
         <v>863726050830898</v>
@@ -8004,7 +8037,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5">
         <v>863726050829296</v>
@@ -8015,7 +8048,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>93</v>
@@ -8029,7 +8062,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>93</v>
@@ -8043,7 +8076,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
@@ -8057,7 +8090,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
@@ -8071,10 +8104,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5">
         <v>863726050831458</v>
@@ -8085,10 +8118,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5">
         <v>863726050831979</v>
@@ -8099,7 +8132,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>93</v>
@@ -8113,10 +8146,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="5">
         <v>863726050833256</v>
@@ -8127,7 +8160,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>40</v>
@@ -8141,7 +8174,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>93</v>
@@ -8155,7 +8188,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -8169,7 +8202,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="4">
         <v>8</v>
@@ -8183,10 +8216,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="5">
         <v>863726050811310</v>
@@ -8197,10 +8230,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="5">
         <v>863726050816178</v>
@@ -8211,10 +8244,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="5">
         <v>863726050815691</v>
@@ -8225,10 +8258,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5">
         <v>863726050811898</v>
@@ -8285,7 +8318,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="5">
         <v>863726050832894</v>
@@ -8299,7 +8332,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="5">
         <v>863726050832910</v>
@@ -8313,7 +8346,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="5">
         <v>863726050833116</v>
@@ -8328,7 +8361,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5">
         <v>863726050831672</v>
@@ -8357,7 +8390,7 @@
         <v>102</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="5">
         <v>863726050831953</v>
@@ -8372,7 +8405,7 @@
         <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="5">
         <v>863726050821855</v>
@@ -8386,7 +8419,7 @@
         <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="5">
         <v>863726050811138</v>
@@ -8400,7 +8433,7 @@
         <v>102</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="5">
         <v>863726050842034</v>
@@ -8439,7 +8472,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>40</v>
@@ -8453,7 +8486,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>40</v>
@@ -8467,7 +8500,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>15</v>
@@ -8481,10 +8514,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="5">
         <v>863726050811476</v>
@@ -8496,10 +8529,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="5">
         <v>863726050811674</v>
@@ -8511,10 +8544,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="5">
         <v>863726050815592</v>
@@ -8525,7 +8558,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>51</v>
@@ -8542,7 +8575,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="5">
         <v>863726050811575</v>
@@ -8556,7 +8589,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="5">
         <v>863726050836697</v>
@@ -8570,7 +8603,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="5">
         <v>863726050836671</v>
@@ -8609,10 +8642,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="5">
         <v>863726050811633</v>
@@ -8624,10 +8657,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="5">
         <v>863726050815931</v>
@@ -8639,10 +8672,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="5">
         <v>863726050834593</v>
@@ -8654,10 +8687,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="5">
         <v>863726050836457</v>
@@ -8668,7 +8701,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
@@ -8683,7 +8716,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
@@ -8698,7 +8731,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>93</v>
@@ -8713,7 +8746,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>93</v>
@@ -8782,7 +8815,7 @@
         <v>868529042895093</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="G60" s="9"/>
     </row>
@@ -8791,7 +8824,7 @@
         <v>35</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="5">
         <v>863726050830575</v>
@@ -8806,7 +8839,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="5">
         <v>863726050832290</v>
@@ -8821,7 +8854,7 @@
         <v>35</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="5">
         <v>863726050831714</v>
@@ -8848,10 +8881,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="5">
         <v>863726050826250</v>
@@ -8863,10 +8896,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="5">
         <v>863726050830757</v>
@@ -8878,7 +8911,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>40</v>
@@ -9046,7 +9079,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="5">
         <v>863726050828512</v>
@@ -9061,7 +9094,7 @@
         <v>47</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" s="5">
         <v>863726050830450</v>
@@ -9076,7 +9109,7 @@
         <v>41</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="5">
         <v>863726050811914</v>
@@ -9091,7 +9124,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="5">
         <v>863726050811450</v>
@@ -9103,7 +9136,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>40</v>
@@ -9136,7 +9169,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="5">
         <v>863726050821913</v>
@@ -9151,7 +9184,7 @@
         <v>14</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C85" s="5">
         <v>863726050821871</v>
@@ -9172,7 +9205,7 @@
         <v>868529042509413</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="G86" s="9"/>
     </row>
@@ -9208,7 +9241,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" s="4">
         <v>8</v>
@@ -9223,10 +9256,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C90" s="5">
         <v>863726050834452</v>
@@ -9238,10 +9271,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="5">
         <v>863726050815493</v>
@@ -9256,7 +9289,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" s="5">
         <v>863726050830716</v>
@@ -9271,7 +9304,7 @@
         <v>28</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="5">
         <v>863726050830534</v>
@@ -9286,7 +9319,7 @@
         <v>28</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" s="5">
         <v>863726050831219</v>
@@ -9301,13 +9334,13 @@
         <v>28</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="5">
         <v>863426050832811</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G95" s="9"/>
     </row>
@@ -9316,7 +9349,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="5">
         <v>863726050831896</v>
@@ -9331,7 +9364,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="5">
         <v>863726050830971</v>
@@ -9406,7 +9439,7 @@
         <v>25</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" s="5">
         <v>863726050833033</v>
@@ -9421,7 +9454,7 @@
         <v>25</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="5">
         <v>863726050832472</v>
@@ -9436,7 +9469,7 @@
         <v>25</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" s="5">
         <v>863726050832670</v>
@@ -9451,7 +9484,7 @@
         <v>25</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C105" s="5">
         <v>863726050832456</v>
@@ -9779,7 +9812,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10664,7 +10697,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11549,7 +11582,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11636,7 +11669,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -11653,7 +11686,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="5">
         <v>863726050811617</v>
@@ -11667,7 +11700,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="5">
         <v>863726050811591</v>
@@ -12490,7 +12523,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12572,7 +12605,7 @@
         <v>867872050189756</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12614,7 +12647,7 @@
         <v>869694050116391</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12642,7 +12675,7 @@
         <v>869092050514998</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12656,7 +12689,7 @@
         <v>869092051217631</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13454,8 +13487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,7 +13519,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>26</v>
@@ -13500,7 +13533,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>26</v>
@@ -13523,7 +13556,7 @@
         <v>861180050114378</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13537,7 +13570,7 @@
         <v>869092051975537</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13551,7 +13584,7 @@
         <v>869092051976436</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13565,7 +13598,7 @@
         <v>868790050478293</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13579,7 +13612,7 @@
         <v>868790050479234</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -13593,7 +13626,7 @@
         <v>868790050478434</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -13607,7 +13640,7 @@
         <v>869092050709457</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13621,7 +13654,7 @@
         <v>869092050704730</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13633,19 +13666,19 @@
         <v>869694050199157</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>869694050199033</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13657,19 +13690,19 @@
         <v>869694050188473</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="12">
         <v>869694050187871</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13681,7 +13714,7 @@
         <v>869694050198837</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13693,7 +13726,7 @@
         <v>869092050514634</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13705,7 +13738,7 @@
         <v>869092050499315</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13761,208 +13794,464 @@
         <v>869092050534756</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092050532610</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050191998</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868529042825033</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5">
+        <v>868529042915115</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868529042825116</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092050532735</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092051093810</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050940899</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694050604396</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790050474896</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868790050546495</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790050477816</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092051974670</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092050897278</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092051976071</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="5">
+        <v>868790050477998</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="5">
+        <v>868790050477717</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092051977772</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867872050366453</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868790050546156</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694050928738</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868790050545216</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="5">
+        <v>868790050544896</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050114014</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="5">
+        <v>868790050546453</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869092051767819</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869092051094255</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092051089230</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869694050188010</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="4">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5">
+        <v>861180050109956</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="5">
+        <v>867872050365075</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="5">
+        <v>868529042824812</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -14493,8 +14782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14525,10 +14814,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="5">
         <v>868790050478673</v>
@@ -14539,10 +14828,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5">
         <v>868790050544995</v>
@@ -14553,7 +14842,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>76</v>
@@ -14622,176 +14911,396 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050082379</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694050198837</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790050545455</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050540555</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050477550</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092050534897</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790050542015</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790050545976</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790050478970</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868790050477576</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8">
+        <v>869694050606995</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868529042825199</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051767637</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092050516498</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>861180050113297</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>861180050112190</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694050117878</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5">
+        <v>868790050477774</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868790050542031</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>861180050114998</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092050898490</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050178391</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694050607159</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694050596774</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050929371</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694050928514</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>861180050103496</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868790050474474</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -15426,6 +15935,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A9:D36">
+    <sortCondition ref="A9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28449,12 +28961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29406,12 +29918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -29450,7 +29962,7 @@
         <v>868790050198776</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -29464,7 +29976,7 @@
         <v>868790050196994</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -29502,7 +30014,7 @@
         <v>868790050194619</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -29552,7 +30064,7 @@
         <v>868790050197075</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -29638,7 +30150,7 @@
         <v>868790050196713</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -29652,7 +30164,7 @@
         <v>868790050197091</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -29690,7 +30202,7 @@
         <v>868790050196614</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -29716,7 +30228,7 @@
         <v>868790050198495</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -29742,7 +30254,7 @@
         <v>868790050204335</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -34091,7 +34603,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>40</v>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="175">
   <si>
     <t>Retail Name</t>
   </si>
@@ -3913,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17211,8 +17211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17242,16 +17242,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050099850</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868529042930353</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="188">
   <si>
     <t>Retail Name</t>
   </si>
@@ -586,6 +586,45 @@
   <si>
     <t>Tuhin Mobile//Pre OK</t>
   </si>
+  <si>
+    <t>IPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello Natore </t>
+  </si>
+  <si>
+    <t>Pre Ok</t>
+  </si>
+  <si>
+    <t>Kabir // Basundhora</t>
+  </si>
+  <si>
+    <t>Kabir// Shafi Mobile</t>
+  </si>
+  <si>
+    <t>dighi Telecom</t>
+  </si>
+  <si>
+    <t>Sohan Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Multi Tecnology</t>
+  </si>
+  <si>
+    <t>Mollah Enterprise</t>
+  </si>
+  <si>
+    <t>Kabir//Shati Computer</t>
+  </si>
+  <si>
+    <t>Cd Sound</t>
+  </si>
+  <si>
+    <t>Siddik telecom</t>
+  </si>
+  <si>
+    <t>Pre-ok</t>
+  </si>
 </sst>
 </file>
 
@@ -13487,8 +13526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14783,7 +14822,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17211,8 +17250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="I14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17270,136 +17309,312 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790050546016</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694050188473</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050114451</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092051097076</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092051090519</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050928852</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868790050478616</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051107597</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051106870</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8">
+        <v>868790050478814</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790050545711</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694050192434</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868529042824952</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050516217</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050930775</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868529042824598</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868529042819879</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868529042928258</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>861180050112554</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868790050661377</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051057073</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867872050365992</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -18113,7 +18328,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18997,8 +19212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I49" sqref="H48:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19028,280 +19243,612 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790050545059</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790050545471</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051096771</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051056877</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051107233</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868529042825058</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092051238118</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050545893</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051056711</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <v>86872050365414</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>868529042824770</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>861180050112737</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790050477477</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868529042916436</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790050661450</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052165112</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052164651</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051103638</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790050664116</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790050473310</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092051763313</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051977954</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092051236815</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092051237334</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694050606730</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694051057198</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694050929454</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868529042510452</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <v>861180050112117</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="5">
+        <v>867872050192990</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790050661534</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050196997</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790050478194</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092051237193</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092051238332</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694051057032</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5">
+        <v>861180050113693</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>861180050114055</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867872050192834</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868529042930098</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869694050191493</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>86118005011572</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868529042915438</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694051107696</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5">
+        <v>861180050113990</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -19874,6 +20421,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D46">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19883,7 +20433,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19893,9 +20443,10 @@
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="19.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -19913,136 +20464,308 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051101053</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050941855</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790050661138</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790050663951</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092051090139</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8">
+        <v>869092051096730</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050662136</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051057099</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867872050370117</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694050785856</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092050499315</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092050709630</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868529042510379</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051056935</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050112471</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051103018</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051057214</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092051238639</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868529042915818</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694051057230</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867872050190358</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -20759,6 +21482,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C23">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="196">
   <si>
     <t>Retail Name</t>
   </si>
@@ -625,6 +625,30 @@
   <si>
     <t>Pre-ok</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Saju Teleccom</t>
+  </si>
+  <si>
+    <t>Kabir//Mitali Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Motiur Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Babu Computer</t>
+  </si>
+  <si>
+    <t>Kabir//Mondol Mobile Na</t>
+  </si>
+  <si>
+    <t>Kabir//Ronju Computer</t>
+  </si>
+  <si>
+    <t>c25/.64</t>
+  </si>
 </sst>
 </file>
 
@@ -2096,7 +2120,7 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13526,7 +13550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -21493,8 +21517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21524,200 +21548,451 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052297154</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050110574</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5">
+        <v>863726050982335</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863726050982772</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050930171</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863726050973953</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052190813</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050184159</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868790050661419</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>863726050982376</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050544656</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092051097571</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5">
+        <v>863726050982590</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694051101491</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050116052</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867872050338734</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8">
+        <v>863726050982236</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>863726050982673</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868529042930130</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5">
+        <v>863726050973730</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694050178052</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694050785872</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868790050662037</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5">
+        <v>863726050982616</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694050199157</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5">
+        <v>863726050982657</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694051136059</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868529042713015</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>868529042713312</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092051236419</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868529042717537</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="4">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5">
+        <v>861180050361359</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -22370,6 +22645,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C33">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22378,8 +22656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22409,180 +22687,410 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051107191</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867872050191059</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868529042717214</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092051096375</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052299218</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092051236195</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050361458</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092050532933</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092051238233</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051136513</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>861180050105517</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868529042717099</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>861180050360633</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050366192</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790050544755</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8">
+        <v>869092052165096</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868529042713411</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052298871</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694050115393</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790050749610</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052297790</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868790050749594</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694050786433</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>861180050361177</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051136539</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092051238076</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092051088638</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694051135754</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5">
+        <v>867872050339138</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -23255,6 +23763,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C30">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23263,8 +23774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,14 @@
     <sheet name="25" sheetId="25" r:id="rId25"/>
     <sheet name="26" sheetId="26" r:id="rId26"/>
     <sheet name="27" sheetId="27" r:id="rId27"/>
-    <sheet name="28" sheetId="28" r:id="rId28"/>
-    <sheet name="29" sheetId="29" r:id="rId29"/>
-    <sheet name="30" sheetId="30" r:id="rId30"/>
-    <sheet name="31" sheetId="31" r:id="rId31"/>
-    <sheet name="Raj Transfer 8" sheetId="32" r:id="rId32"/>
-    <sheet name="Nat Receive C20A" sheetId="33" r:id="rId33"/>
+    <sheet name="Sheet2" sheetId="35" r:id="rId28"/>
+    <sheet name="28" sheetId="28" r:id="rId29"/>
+    <sheet name="29" sheetId="29" r:id="rId30"/>
+    <sheet name="30" sheetId="30" r:id="rId31"/>
+    <sheet name="31" sheetId="31" r:id="rId32"/>
+    <sheet name="Raj Transfer 8" sheetId="32" r:id="rId33"/>
+    <sheet name="Nat Receive C20A" sheetId="33" r:id="rId34"/>
+    <sheet name="SR to Nat C17" sheetId="34" r:id="rId35"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10'!$A$1:$D$89</definedName>
@@ -53,14 +55,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'7'!$A$1:$D$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8'!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'9'!$A$1:$D$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'Nat Receive C20A'!$A$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'Nat Receive C20A'!$A$2:$D$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="207">
   <si>
     <t>Retail Name</t>
   </si>
@@ -649,6 +651,39 @@
   <si>
     <t>c25/.64</t>
   </si>
+  <si>
+    <t>Kabir//Bismillah Naldanga</t>
+  </si>
+  <si>
+    <t>Kabir//GD Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Barsha Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollah Mobile </t>
+  </si>
+  <si>
+    <t>Kabir//Cd Sound</t>
+  </si>
+  <si>
+    <t>Biswash Teledcom</t>
+  </si>
+  <si>
+    <t>Kabir// Midul Bhai</t>
+  </si>
+  <si>
+    <t>Kabir//Noman Telecom</t>
+  </si>
+  <si>
+    <t>Kabir// Akter Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Sarthok Boss</t>
+  </si>
+  <si>
+    <t>pre-Ok</t>
+  </si>
 </sst>
 </file>
 
@@ -23774,8 +23809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23805,193 +23840,439 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868529042718295</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8">
+        <v>869694051252856</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050362399</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868529042719376</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050788173</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790050749776</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052295711</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694050781178</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051252690</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868529042719590</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051136075</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050758017</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092051976493</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052298913</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>861180050114873</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790050756953</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868529042717917</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>861180050368552</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051253037</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694051252559</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694051252310</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867872050338957</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051147478</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694051252518</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051252278</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694051252476</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694051252658</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5">
+        <v>867872050339377</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051146694</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051147411</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="5">
+        <v>867872050191216</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -24651,6 +24932,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C32">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24660,7 +24944,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24690,186 +24974,422 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868529042718113</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868529042718519</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868529042719350</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>868529042718378</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052297253</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694050783810</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790050756276</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050750279</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092051095435</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868529042718899</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092050522330</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694050784057</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694050783638</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790050736518</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052297352</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694050082718</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050090414</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868529042713072</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051252377</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051095252</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694050604230</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051976279</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051135770</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092052298657</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092052362792</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050325057</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092050515532</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092052297873</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694050781558</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868529042714013</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -25536,891 +26056,21 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C31">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26430,7 +26080,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29313,7 +28963,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30194,6 +29844,891 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
@@ -31150,7 +31685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
@@ -32211,6 +32746,931 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
+        <v>868529042761279</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>868529042761352</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5">
+        <v>868529042790799</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5">
+        <v>868529042516277</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>868529042790211</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5">
+        <v>868529042518554</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
+        <v>868529042790070</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <v>868529042789759</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5">
+        <v>868529042789973</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5">
+        <v>868529042761154</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
+        <v>868529042760792</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
+        <v>868529042760917</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5">
+        <v>868529042759554</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>868529042518919</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5">
+        <v>868529042518950</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5">
+        <v>868529042761394</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
+        <v>868529042761014</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>868529042761055</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
+        <v>868529042760891</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5">
+        <v>868529042518877</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="34"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,13 @@
     <sheet name="25" sheetId="25" r:id="rId25"/>
     <sheet name="26" sheetId="26" r:id="rId26"/>
     <sheet name="27" sheetId="27" r:id="rId27"/>
-    <sheet name="Sheet2" sheetId="35" r:id="rId28"/>
-    <sheet name="28" sheetId="28" r:id="rId29"/>
-    <sheet name="29" sheetId="29" r:id="rId30"/>
-    <sheet name="30" sheetId="30" r:id="rId31"/>
-    <sheet name="31" sheetId="31" r:id="rId32"/>
-    <sheet name="Raj Transfer 8" sheetId="32" r:id="rId33"/>
-    <sheet name="Nat Receive C20A" sheetId="33" r:id="rId34"/>
-    <sheet name="SR to Nat C17" sheetId="34" r:id="rId35"/>
+    <sheet name="28" sheetId="28" r:id="rId28"/>
+    <sheet name="29" sheetId="29" r:id="rId29"/>
+    <sheet name="30" sheetId="30" r:id="rId30"/>
+    <sheet name="31" sheetId="31" r:id="rId31"/>
+    <sheet name="Raj Transfer 8" sheetId="32" r:id="rId32"/>
+    <sheet name="Nat Receive C20A" sheetId="33" r:id="rId33"/>
+    <sheet name="SR to Nat C17" sheetId="34" r:id="rId34"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10'!$A$1:$D$89</definedName>
@@ -55,14 +54,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'7'!$A$1:$D$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8'!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'9'!$A$1:$D$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'Nat Receive C20A'!$A$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'Nat Receive C20A'!$A$2:$D$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="209">
   <si>
     <t>Retail Name</t>
   </si>
@@ -684,6 +683,12 @@
   <si>
     <t>pre-Ok</t>
   </si>
+  <si>
+    <t>Brothes Telecom</t>
+  </si>
+  <si>
+    <t>Sorkar telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -24943,7 +24948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -26065,22 +26070,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26956,6 +26949,1237 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092050533576</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790050736393</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050361730</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051381739</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868529042713957</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694051056695</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050514634</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092051097290</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051276830</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790050728176</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052191233</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092052362230</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694051146017</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868529042713171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051381796</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051242592</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>861180050360799</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868790050749958</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092051094891</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052361372</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052362016</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092052193437</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052360937</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092052189751</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5">
+        <v>868790050733473</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092051766894</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868529042915412</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868529042915057</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>868529042510312</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051147353</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868529042761279</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694051229011</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694051273639</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790050730230</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5">
+        <v>868790050736872</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092051768114</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092051972419</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869694051365856</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694051380830</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869694051274611</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869694051275717</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="8">
+        <v>868529042761352</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5">
+        <v>868529042761352</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:C44">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29845,891 +31069,6 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31685,7 +32024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
@@ -32750,11 +33089,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="212">
   <si>
     <t>Retail Name</t>
   </si>
@@ -689,6 +689,15 @@
   <si>
     <t>Sorkar telecom</t>
   </si>
+  <si>
+    <t>Rose Mobile Point</t>
+  </si>
+  <si>
+    <t>Tuhin Mobile//Dear Ali</t>
+  </si>
+  <si>
+    <t>Pre -OK</t>
+  </si>
 </sst>
 </file>
 
@@ -26957,8 +26966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29301,8 +29310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29332,193 +29341,441 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868529042518877</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052361836</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868529042789759</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8">
+        <v>861180050362779</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092050533238</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050521910</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092051095013</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868529042761154</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>868529042760792</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050360070</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050731618</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050758975</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092051095195</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092050521936</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868529042518554</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050363413</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052362198</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051276038</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>861180050361854</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868529042713395</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052362552</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868529042761014</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868529042790799</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694051271310</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051273357</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694051275857</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694051275311</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694051255990</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051275790</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051275212</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092050532651</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -30178,6 +30435,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D32">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="214">
   <si>
     <t>Retail Name</t>
   </si>
@@ -698,6 +698,12 @@
   <si>
     <t>Pre -OK</t>
   </si>
+  <si>
+    <t>Kabir//GD Electronics</t>
+  </si>
+  <si>
+    <t>Kabir//Akter Telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -29310,8 +29316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30446,8 +30452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30477,161 +30483,365 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790050737037</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790050748695</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>868529042761394</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052302970</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051229219</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092050521712</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050511291</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092051492871</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052191514</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050368354</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050728473</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092051978275</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790050735395</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092051983176</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051381192</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790050546214</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868790050749032</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051057297</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051228955</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051983218</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052297139</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694051057339</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051275592</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092051757851</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867872050338759</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050362753</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -31323,6 +31533,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D27">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/May/Others/Entry_Imei-List -May.xlsx
+++ b/realme/May/Others/Entry_Imei-List -May.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="23" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="215">
   <si>
     <t>Retail Name</t>
   </si>
@@ -704,6 +704,9 @@
   <si>
     <t>Kabir//Akter Telecom</t>
   </si>
+  <si>
+    <t>Not OK</t>
+  </si>
 </sst>
 </file>
 
@@ -8064,8 +8067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13605,7 +13608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -14900,8 +14903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15276,7 +15279,9 @@
       <c r="C26" s="5">
         <v>868790050477774</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -15289,7 +15294,9 @@
       <c r="C27" s="5">
         <v>868790050542031</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -19291,8 +19298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I49" sqref="H48:I49"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19429,7 +19436,9 @@
       <c r="C9" s="5">
         <v>868790050545893</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -19441,7 +19450,9 @@
       <c r="C10" s="5">
         <v>869694051056711</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -19579,7 +19590,9 @@
       <c r="C20" s="5">
         <v>868790050664116</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -19591,7 +19604,9 @@
       <c r="C21" s="5">
         <v>868790050473310</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -19603,7 +19618,9 @@
       <c r="C22" s="5">
         <v>869092051763313</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -19615,7 +19632,9 @@
       <c r="C23" s="5">
         <v>869092051977954</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -19627,7 +19646,9 @@
       <c r="C24" s="5">
         <v>869092051236815</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -19639,7 +19660,9 @@
       <c r="C25" s="5">
         <v>869092051237334</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -19651,7 +19674,9 @@
       <c r="C26" s="5">
         <v>869694050606730</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -19664,7 +19689,9 @@
       <c r="C27" s="5">
         <v>869694051057198</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -19676,7 +19703,9 @@
       <c r="C28" s="5">
         <v>869694050929454</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -19688,7 +19717,9 @@
       <c r="C29" s="5">
         <v>868529042510452</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -19701,7 +19732,9 @@
       <c r="C30" s="5">
         <v>861180050112117</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -19713,7 +19746,9 @@
       <c r="C31" s="5">
         <v>867872050192990</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -20511,8 +20546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21573,7 +21608,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D12" sqref="D12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21766,7 +21801,9 @@
       <c r="C13" s="5">
         <v>869092051097571</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -21778,7 +21815,9 @@
       <c r="C14" s="5">
         <v>863726050982590</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -21790,7 +21829,9 @@
       <c r="C15" s="5">
         <v>869694051101491</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -21802,7 +21843,9 @@
       <c r="C16" s="5">
         <v>869694050116052</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -22712,7 +22755,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22751,7 +22794,9 @@
       <c r="C2" s="5">
         <v>869694051107191</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -23829,8 +23874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23911,7 +23956,9 @@
       <c r="C5" s="5">
         <v>868529042719376</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -24964,7 +25011,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25031,7 +25078,9 @@
       <c r="C4" s="5">
         <v>868529042719350</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -25043,7 +25092,9 @@
       <c r="C5" s="8">
         <v>868529042718378</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -26087,7 +26138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -26972,8 +27023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27337,7 +27388,9 @@
       <c r="C25" s="5">
         <v>869092052189751</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -27349,7 +27402,9 @@
       <c r="C26" s="5">
         <v>868790050733473</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -29316,8 +29371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30452,7 +30507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
